--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -44,7 +44,25 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 9:19 AM</t>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>Wednesday, 23 July, 2025 9:20 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +272,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +284,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,32 +692,46 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
+      <c r="P8" s="13">
+        <v>123</v>
+      </c>
       <c r="Q8" s="13"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c t="s" r="A9" s="14">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -707,13 +739,13 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c t="s" r="G9" s="15">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c t="s" r="K9" s="17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -62,7 +62,7 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 9:20 AM</t>
+    <t>Wednesday, 23 July, 2025 9:22 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -44,13 +44,28 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
     <t>0:2</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>123.00</t>
@@ -724,38 +739,71 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>22</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>23</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>24</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +817,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -77,7 +77,7 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 9:22 AM</t>
+    <t>Wednesday, 23 July, 2025 9:30 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -62,6 +62,33 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CALMEPAM 3MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
@@ -74,10 +101,7 @@
     <t>123.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>Wednesday, 23 July, 2025 9:30 AM</t>
+    <t>Wednesday, 23 July, 2025 10:11 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -772,38 +796,104 @@
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>142.80000000000001</v>
-      </c>
-      <c r="Q9" s="13"/>
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>23</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>24</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>22</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>23</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>24</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>27</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>28</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>226.72</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>30</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>31</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>32</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -822,10 +912,20 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -101,7 +101,31 @@
     <t>123.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 10:11 AM</t>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 23 July, 2025 10:16 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -862,38 +886,104 @@
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>226.72</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>30</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
         <v>31</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>32</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>34</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>18</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>35</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>36</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>245.55000000000001</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>38</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>39</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>40</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -922,10 +1012,20 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -89,12 +89,33 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>123.00</t>
   </si>
   <si>
@@ -113,6 +134,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>ZITHROMAX 500MG 3 F.C. TAB</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -125,7 +155,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 10:16 AM</t>
+    <t>Wednesday, 23 July, 2025 10:18 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -882,7 +912,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -908,14 +938,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>33</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -931,59 +961,158 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>245.55000000000001</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>37</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
         <v>38</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>39</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
         <v>40</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>41</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>18</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>42</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>44</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>18</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>45</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>46</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>445.38999999999999</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>48</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>49</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>50</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1022,10 +1151,25 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -104,18 +104,21 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>24.0000</t>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>TORSERETIC 20MG 30 TABS.</t>
-  </si>
-  <si>
     <t>123.00</t>
   </si>
   <si>
@@ -152,10 +155,13 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>Wednesday, 23 July, 2025 10:18 AM</t>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>Wednesday, 23 July, 2025 10:31 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -961,7 +967,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -971,11 +977,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -987,14 +993,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1004,11 +1010,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1020,7 +1026,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1037,11 +1043,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1053,7 +1059,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1066,29 +1072,29 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
       <c r="P16" s="13">
-        <v>445.38999999999999</v>
+        <v>459.38999999999999</v>
       </c>
       <c r="Q16" s="13"/>
     </row>
     <row r="17" ht="16.5" customHeight="1">
       <c t="s" r="A17" s="14">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -1096,13 +1102,13 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c t="s" r="G17" s="15">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="16"/>
       <c t="s" r="K17" s="17">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -101,6 +101,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>EGYCUSATE 20 MG/5 ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -125,6 +134,18 @@
     <t>123.0000</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -161,7 +182,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 10:31 AM</t>
+    <t>Wednesday, 23 July, 2025 10:38 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -934,7 +955,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -944,14 +965,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -960,14 +981,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -977,14 +998,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -993,14 +1014,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1010,14 +1031,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1026,14 +1047,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1066,13 +1087,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1083,42 +1104,108 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>459.38999999999999</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>18</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>50</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
         <v>51</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c t="s" r="Q16" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>52</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>18</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>53</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>54</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>515.38999999999999</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>57</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>58</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>59</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1172,10 +1259,20 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALL-VENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>76.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -182,7 +194,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 10:38 AM</t>
+    <t>Wednesday, 23 July, 2025 11:01 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -939,7 +951,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -955,7 +967,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -965,11 +977,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -981,14 +993,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -998,14 +1010,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1031,14 +1043,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>40</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1071,7 +1083,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1120,7 +1132,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1130,11 +1142,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1146,20 +1158,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1170,42 +1182,75 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>515.38999999999999</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>23</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
         <v>57</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>58</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
         <v>59</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c t="s" r="Q18" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>549.38999999999999</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>61</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>62</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>63</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1269,10 +1314,15 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -194,7 +194,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 11:01 AM</t>
+    <t>Wednesday, 23 July, 2025 11:27 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -77,6 +92,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
     <t>CALMEPAM 3MG 20 TAB.</t>
   </si>
   <si>
@@ -107,9 +134,6 @@
     <t>6:2</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -131,15 +155,9 @@
     <t>36.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>123.00</t>
   </si>
   <si>
@@ -170,6 +188,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>ZADOGLOBIN 20 CAPS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
     <t>ZITHROMAX 500MG 3 F.C. TAB</t>
   </si>
   <si>
@@ -179,22 +206,43 @@
     <t>160.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>87:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>Wednesday, 23 July, 2025 11:27 AM</t>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 23 July, 2025 11:47 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -918,7 +966,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -927,14 +975,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -944,14 +992,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -960,14 +1008,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -977,14 +1025,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -993,14 +1041,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1010,14 +1058,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1026,14 +1074,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1043,14 +1091,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1059,14 +1107,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1109,14 +1157,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1125,14 +1173,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1142,14 +1190,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1158,14 +1206,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1175,11 +1223,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1191,66 +1239,231 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>59</v>
       </c>
-      <c t="s" r="Q18" s="12">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>32</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>549.38999999999999</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
         <v>61</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c t="s" r="Q19" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>62</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>32</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>13</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>63</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>65</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>66</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>67</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>68</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>70</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>32</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>67</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>71</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>73</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>74</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>67</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>75</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>780.57000000000005</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>77</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>78</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>79</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1319,10 +1532,35 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -242,7 +242,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 11:47 AM</t>
+    <t>Wednesday, 23 July, 2025 11:49 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -80,30 +80,30 @@
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
-    <t>2:1</t>
+    <t>2:0</t>
   </si>
   <si>
     <t>60.00</t>
   </si>
   <si>
-    <t>19.8000</t>
+    <t>39.6000</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
   </si>
   <si>
     <t>0:1</t>
   </si>
   <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>7.6800</t>
-  </si>
-  <si>
     <t>CALMEPAM 3MG 20 TAB.</t>
   </si>
   <si>
@@ -155,6 +155,12 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
@@ -242,7 +248,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 11:49 AM</t>
+    <t>Wednesday, 23 July, 2025 11:54 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -966,7 +972,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -975,14 +981,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -992,14 +998,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>30</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1065,7 +1071,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1091,14 +1097,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1180,7 +1186,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1190,14 +1196,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1206,14 +1212,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1223,11 +1229,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1239,14 +1245,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1256,14 +1262,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1272,14 +1278,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1289,14 +1295,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1305,7 +1311,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1322,14 +1328,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1338,28 +1344,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1371,31 +1377,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1404,66 +1410,99 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>75</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
         <v>76</v>
       </c>
-      <c t="s" r="Q23" s="12">
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>69</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>77</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>780.57000000000005</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
-        <v>77</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
-        <v>78</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>816.21000000000004</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
         <v>79</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>80</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>81</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1557,10 +1596,15 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -248,7 +248,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 11:54 AM</t>
+    <t>Wednesday, 23 July, 2025 11:57 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -128,6 +128,18 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -146,6 +158,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -194,6 +215,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8518:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>ZADOGLOBIN 20 CAPS</t>
   </si>
   <si>
@@ -230,12 +263,21 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>6.0000</t>
   </si>
   <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -248,7 +290,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 11:57 AM</t>
+    <t>Wednesday, 23 July, 2025 12:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1097,14 +1139,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1113,14 +1155,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1130,14 +1172,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1146,14 +1188,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1163,14 +1205,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1179,14 +1221,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1196,14 +1238,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1212,14 +1254,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1229,14 +1271,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1245,14 +1287,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1262,14 +1304,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1285,7 +1327,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1295,14 +1337,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1311,14 +1353,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1335,7 +1377,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1351,7 +1393,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1361,14 +1403,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1377,20 +1419,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1423,7 +1465,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1434,7 +1476,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1450,59 +1492,191 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>816.21000000000004</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>78</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
         <v>79</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
         <v>80</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
         <v>81</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>83</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>32</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>80</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>70</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>85</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>86</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>80</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>87</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>89</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>90</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>80</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>91</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>958.21000000000004</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>93</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>94</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>95</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1601,10 +1775,30 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -290,7 +290,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 12:03 PM</t>
+    <t>Wednesday, 23 July, 2025 12:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -167,15 +167,21 @@
     <t>92.0000</t>
   </si>
   <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -290,7 +296,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 12:05 PM</t>
+    <t>Wednesday, 23 July, 2025 12:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1261,7 +1267,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1271,14 +1277,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1304,14 +1310,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1327,7 +1333,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1337,14 +1343,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1353,14 +1359,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1370,11 +1376,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1386,14 +1392,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1403,14 +1409,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1419,14 +1425,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1436,14 +1442,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1452,14 +1458,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1469,14 +1475,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1485,7 +1491,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1502,14 +1508,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1518,28 +1524,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1551,31 +1557,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1591,24 +1597,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1617,66 +1623,99 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>958.21000000000004</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>91</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>92</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>82</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
         <v>93</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
         <v>94</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>994.21000000000004</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
         <v>95</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>96</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>97</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1795,10 +1834,15 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -188,6 +188,21 @@
     <t>7:2</t>
   </si>
   <si>
+    <t>OPTIDEX -T EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>POLYFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
@@ -296,7 +311,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 12:34 PM</t>
+    <t>Wednesday, 23 July, 2025 12:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1366,7 +1381,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1376,11 +1391,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1392,14 +1407,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1409,11 +1424,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1425,14 +1440,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1442,14 +1457,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1458,14 +1473,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1475,11 +1490,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1491,14 +1506,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1508,11 +1523,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>30</v>
@@ -1524,14 +1539,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1541,11 +1556,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1557,31 +1572,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1590,7 +1605,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1603,18 +1618,18 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1623,28 +1638,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1656,66 +1671,132 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>92</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>93</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>87</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>94</v>
       </c>
-      <c t="s" r="Q29" s="12">
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>994.21000000000004</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>95</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>96</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
         <v>97</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>87</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>98</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1105.21</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>100</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>101</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>102</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1839,10 +1920,20 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -311,7 +311,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 12:45 PM</t>
+    <t>Wednesday, 23 July, 2025 1:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>34.00</t>
   </si>
   <si>
     <t>34.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
   </si>
   <si>
@@ -203,6 +215,15 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
@@ -281,6 +302,12 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -293,25 +320,16 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 1:11 PM</t>
+    <t>Wednesday, 23 July, 2025 1:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1002,7 +1020,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1011,14 +1029,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1028,14 +1046,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1068,7 +1086,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1077,14 +1095,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1094,14 +1112,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>34</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1134,7 +1152,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1167,7 +1185,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1193,14 +1211,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1209,14 +1227,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1226,14 +1244,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1242,14 +1260,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1259,11 +1277,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1275,14 +1293,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1292,11 +1310,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1308,14 +1326,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1325,14 +1343,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1341,14 +1359,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1362,10 +1380,10 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1374,14 +1392,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1391,14 +1409,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1407,7 +1425,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1424,11 +1442,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1440,14 +1458,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1457,11 +1475,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1473,14 +1491,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1513,7 +1531,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1523,14 +1541,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1539,14 +1557,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1556,11 +1574,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1572,14 +1590,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1596,7 +1614,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1612,7 +1630,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1622,11 +1640,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1638,31 +1656,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1671,31 +1689,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1717,15 +1735,15 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1737,66 +1755,165 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>99</v>
       </c>
-      <c t="s" r="Q31" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1105.21</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>36</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>94</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>84</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
         <v>100</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c t="s" r="Q32" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>101</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
         <v>102</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>94</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>14</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>103</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>98</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>94</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>104</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1270.21</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>106</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>107</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>108</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1930,10 +2047,25 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -161,6 +161,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
     <t>EGYCUSATE 20 MG/5 ML SYRUP 100ML</t>
   </si>
   <si>
@@ -329,7 +338,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 1:53 PM</t>
+    <t>Wednesday, 23 July, 2025 2:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1267,7 +1276,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1284,7 +1293,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1300,7 +1309,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1333,7 +1342,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1366,7 +1375,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1376,14 +1385,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1392,14 +1401,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1409,14 +1418,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1425,14 +1434,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1446,10 +1455,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1458,7 +1467,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1475,7 +1484,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1498,7 +1507,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1531,7 +1540,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1564,7 +1573,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1574,11 +1583,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1590,14 +1599,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1607,14 +1616,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1623,14 +1632,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1640,14 +1649,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1656,14 +1665,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1680,7 +1689,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1713,7 +1722,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1729,21 +1738,21 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1755,28 +1764,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1788,31 +1797,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1821,31 +1830,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1854,66 +1863,99 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1270.21</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>106</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>101</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>97</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>107</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>108</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1284.21</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>109</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>110</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>111</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2062,10 +2104,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -338,7 +338,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 2:00 PM</t>
+    <t>Wednesday, 23 July, 2025 2:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -326,7 +326,7 @@
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
-    <t>26:0</t>
+    <t>30.0000</t>
   </si>
   <si>
     <t>محلول ملح</t>
@@ -338,7 +338,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 2:01 PM</t>
+    <t>Wednesday, 23 July, 2025 2:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1870,7 +1870,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1884,10 +1884,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1925,7 +1925,7 @@
     </row>
     <row r="36" ht="25.5" customHeight="1">
       <c r="P36" s="13">
-        <v>1284.21</v>
+        <v>1299.21</v>
       </c>
       <c r="Q36" s="13"/>
     </row>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -338,7 +338,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 2:03 PM</t>
+    <t>Wednesday, 23 July, 2025 2:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -179,6 +179,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
   </si>
   <si>
@@ -296,15 +305,21 @@
     <t>160.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
     <t>87:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -338,7 +353,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 2:07 PM</t>
+    <t>Wednesday, 23 July, 2025 2:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1375,7 +1390,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1408,7 +1423,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1418,14 +1433,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1434,14 +1449,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1451,14 +1466,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1467,14 +1482,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1488,10 +1503,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1500,7 +1515,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1517,7 +1532,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1540,7 +1555,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1573,7 +1588,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1606,7 +1621,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1616,11 +1631,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1632,14 +1647,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1649,14 +1664,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1665,14 +1680,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1682,14 +1697,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1698,14 +1713,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1722,7 +1737,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1755,7 +1770,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1771,21 +1786,21 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1797,28 +1812,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1830,31 +1845,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1863,31 +1878,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1896,66 +1911,132 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1299.21</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>109</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>12</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>100</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>14</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
         <v>110</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c t="s" r="Q36" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>111</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>106</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>100</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>112</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1336.21</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>114</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>115</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>116</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2109,10 +2190,20 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -188,6 +188,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
     <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
   </si>
   <si>
@@ -353,7 +362,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 2:08 PM</t>
+    <t>Wednesday, 23 July, 2025 2:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1390,7 +1399,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1407,7 +1416,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1423,7 +1432,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1456,7 +1465,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1466,14 +1475,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1482,14 +1491,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1499,14 +1508,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1515,14 +1524,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1536,10 +1545,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1548,7 +1557,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1565,7 +1574,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1588,7 +1597,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1621,7 +1630,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1654,7 +1663,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1664,11 +1673,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1680,14 +1689,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1697,14 +1706,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1713,14 +1722,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1730,14 +1739,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1746,14 +1755,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1770,7 +1779,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1803,7 +1812,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1819,21 +1828,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1858,15 +1867,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1878,28 +1887,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1911,31 +1920,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1944,31 +1953,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1977,66 +1986,99 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1336.21</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>114</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>109</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>103</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>115</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>116</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1391.6500000000001</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>117</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>118</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>119</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2200,10 +2242,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -152,6 +152,18 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -209,9 +221,6 @@
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
@@ -341,6 +350,15 @@
     <t>10:0</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -362,7 +380,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 2:43 PM</t>
+    <t>Wednesday, 23 July, 2025 2:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1277,14 +1295,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1293,14 +1311,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1310,11 +1328,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>34</v>
@@ -1326,14 +1344,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1343,14 +1361,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1359,14 +1377,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1376,11 +1394,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1392,14 +1410,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1409,14 +1427,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1425,14 +1443,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1442,14 +1460,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1458,14 +1476,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1475,11 +1493,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1491,14 +1509,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1508,14 +1526,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1524,14 +1542,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1541,14 +1559,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1557,14 +1575,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1578,10 +1596,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1590,7 +1608,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1607,7 +1625,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -1630,7 +1648,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1663,7 +1681,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1696,7 +1714,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1706,11 +1724,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1722,14 +1740,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1739,14 +1757,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1755,14 +1773,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1772,14 +1790,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1788,14 +1806,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1812,7 +1830,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1845,7 +1863,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1861,21 +1879,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1900,15 +1918,15 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1920,28 +1938,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1953,31 +1971,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1986,31 +2004,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2019,66 +2037,132 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1391.6500000000001</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>117</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>118</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>12</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>106</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>14</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
         <v>119</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c t="s" r="Q39" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>120</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>112</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>106</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>121</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1419.4100000000001</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>123</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>124</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>125</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2247,10 +2331,20 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -47,330 +47,360 @@
     <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
   </si>
   <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>ALL-VENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>AMRI-K 10MG/ML 5 AMP. I.M.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CALMEPAM 3MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>EGYCUSATE 20 MG/5 ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>OPTIDEX -T EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>POLYFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8518:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>ZADOGLOBIN 20 CAPS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
+    <t>ZITHROMAX 500MG 3 F.C. TAB</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>87:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>36:0</t>
+  </si>
+  <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
     <t>25:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>ALL-VENT SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>275.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>ANTODINE 20MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>39.6000</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>7.6800</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>CALMEPAM 3MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>CATAFAST 50 MG 9 SACHET</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>7.9200</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DRAMENEX 50MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>EGYCUSATE 20 MG/5 ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>55.4400</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>7:2</t>
-  </si>
-  <si>
-    <t>OPTIDEX -T EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>POLYFRESH 0.2% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>TORSERETIC 20MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>123.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8518:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>ZADOGLOBIN 20 CAPS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>67.5000</t>
-  </si>
-  <si>
-    <t>ZITHROMAX 500MG 3 F.C. TAB</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>160.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جنتيانا </t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>87:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>ماكينه حلاقه جليت فليكتور</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -380,7 +410,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 2:46 PM</t>
+    <t>Wednesday, 23 July, 2025 5:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1071,7 +1101,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1080,14 +1110,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1097,14 +1127,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1113,14 +1143,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1130,14 +1160,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1146,14 +1176,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1163,14 +1193,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1203,7 +1233,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1219,7 +1249,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1229,14 +1259,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1245,14 +1275,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1262,14 +1292,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1278,14 +1308,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1295,14 +1325,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1311,14 +1341,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1328,14 +1358,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1344,14 +1374,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1368,7 +1398,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1384,7 +1414,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1394,14 +1424,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1417,7 +1447,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1434,7 +1464,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1450,7 +1480,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1467,7 +1497,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1483,7 +1513,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1500,7 +1530,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1516,7 +1546,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1526,14 +1556,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1542,14 +1572,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1559,14 +1589,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1575,14 +1605,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1592,14 +1622,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1608,14 +1638,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1625,14 +1655,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1641,14 +1671,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1658,14 +1688,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1674,14 +1704,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1691,14 +1721,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1714,7 +1744,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1731,7 +1761,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1747,7 +1777,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1757,14 +1787,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1773,14 +1803,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1790,14 +1820,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1806,14 +1836,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1823,14 +1853,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1839,14 +1869,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1856,14 +1886,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1872,14 +1902,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1889,14 +1919,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1905,31 +1935,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1938,31 +1968,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1971,31 +2001,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2004,31 +2034,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2037,31 +2067,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2077,24 +2107,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2110,13 +2140,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2127,42 +2157,174 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>123</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>28</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>109</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>100</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>126</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>127</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>109</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>116</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>128</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>129</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>109</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>14</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1419.4100000000001</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>123</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>124</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
-        <v>125</v>
-      </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>130</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>119</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>109</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>131</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1527.4100000000001</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>133</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>134</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>135</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2341,10 +2503,30 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -254,6 +254,18 @@
     <t>7:2</t>
   </si>
   <si>
+    <t>NEXIUM 40MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>488.00</t>
+  </si>
+  <si>
+    <t>3904.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>OPTIDEX -T EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -410,7 +422,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 5:45 PM</t>
+    <t>Wednesday, 23 July, 2025 5:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1721,14 +1733,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1737,14 +1749,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1754,11 +1766,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1770,14 +1782,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1787,11 +1799,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1803,14 +1815,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1820,11 +1832,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1836,14 +1848,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1853,11 +1865,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1869,14 +1881,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1886,14 +1898,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1926,7 +1938,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1942,7 +1954,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1952,14 +1964,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1968,7 +1980,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1985,14 +1997,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2001,20 +2013,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2022,7 +2034,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2034,28 +2046,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2067,24 +2079,24 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2113,15 +2125,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2133,28 +2145,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2166,7 +2178,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2179,18 +2191,18 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>125</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2199,31 +2211,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2232,31 +2244,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2265,66 +2277,99 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1527.4100000000001</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
-        <v>133</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>134</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>123</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>113</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
         <v>135</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>5431.4099999999999</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>137</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>138</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>139</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2523,10 +2568,15 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -137,6 +137,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>CALMEPAM 3MG 20 TAB.</t>
   </si>
   <si>
@@ -158,6 +167,15 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -356,15 +374,18 @@
     <t>30.00</t>
   </si>
   <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>جل صبار انوفا</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -377,6 +398,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>جولي ايفا كريم تشقير</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
@@ -401,12 +431,24 @@
     <t>5:0</t>
   </si>
   <si>
+    <t>شامبو الفيف 400 مل</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
     <t>36:0</t>
   </si>
   <si>
+    <t xml:space="preserve">فرش كعب </t>
+  </si>
+  <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
@@ -422,7 +464,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 5:48 PM</t>
+    <t>Wednesday, 23 July, 2025 6:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1294,7 +1336,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1327,7 +1369,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1337,14 +1379,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1353,14 +1395,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1370,14 +1412,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1386,14 +1428,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1403,14 +1445,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1419,14 +1461,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1436,14 +1478,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1452,14 +1494,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1476,7 +1518,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1492,7 +1534,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1502,14 +1544,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1525,7 +1567,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1542,7 +1584,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1558,7 +1600,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1575,7 +1617,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1624,7 +1666,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1634,14 +1676,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1650,14 +1692,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1667,14 +1709,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1683,14 +1725,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1700,14 +1742,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1716,14 +1758,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1733,14 +1775,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1756,7 +1798,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1770,10 +1812,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1789,7 +1831,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1806,7 +1848,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1815,14 +1857,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1832,7 +1874,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -1855,7 +1897,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1888,7 +1930,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1898,11 +1940,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1914,14 +1956,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1938,7 +1980,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1964,11 +2006,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1980,14 +2022,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1997,11 +2039,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>31</v>
@@ -2013,14 +2055,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2053,24 +2095,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2086,17 +2128,17 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2119,13 +2161,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2136,7 +2178,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2152,13 +2194,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2166,10 +2208,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2185,24 +2227,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2211,31 +2253,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2244,28 +2286,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2290,18 +2332,18 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2317,13 +2359,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2338,38 +2380,236 @@
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>5431.4099999999999</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>137</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>28</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>119</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>110</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
         <v>138</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c t="s" r="Q46" s="12">
         <v>139</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>140</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>28</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>119</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>141</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>143</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>144</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>119</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>127</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>145</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>21</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>119</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>70</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>146</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>147</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>119</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>14</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>148</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>133</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>119</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>149</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>5896.0500000000002</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>151</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>152</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>153</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2573,10 +2813,40 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -464,7 +464,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 6:18 PM</t>
+    <t>Wednesday, 23 July, 2025 6:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -107,6 +107,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -128,6 +140,15 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 120 ML</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>BETAFOS 1 AMP. 2ML</t>
   </si>
   <si>
@@ -188,6 +209,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -245,6 +275,15 @@
     <t>55.4400</t>
   </si>
   <si>
+    <t>GOURYST 0.5 MG 100 TABS.</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
   </si>
   <si>
@@ -254,6 +293,15 @@
     <t>92.0000</t>
   </si>
   <si>
+    <t>HIDERM TOPICAL LOTION 100ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -272,6 +320,27 @@
     <t>7:2</t>
   </si>
   <si>
+    <t>METAPSIN 10 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>2:6</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>NEXIUM 40MG 28 F.C. TAB.</t>
   </si>
   <si>
@@ -290,6 +359,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>PEPZOL 40MG 7 CAPS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>POLYFRESH 0.2% EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -329,9 +407,6 @@
     <t>3:3</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>16.8300</t>
   </si>
   <si>
@@ -431,6 +506,15 @@
     <t>5:0</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>شامبو الفيف 400 مل</t>
   </si>
   <si>
@@ -464,7 +548,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 6:27 PM</t>
+    <t>Wednesday, 23 July, 2025 6:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1237,7 +1321,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1247,14 +1331,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1263,14 +1347,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1287,7 +1371,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1303,7 +1387,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1313,14 +1397,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1329,14 +1413,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1346,11 +1430,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1362,14 +1446,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1379,11 +1463,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1395,14 +1479,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1419,7 +1503,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1435,7 +1519,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1452,7 +1536,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1485,7 +1569,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1501,7 +1585,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1511,14 +1595,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1527,14 +1611,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1544,14 +1628,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1567,7 +1651,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1600,7 +1684,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1610,14 +1694,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1626,14 +1710,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1643,14 +1727,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1659,14 +1743,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1676,11 +1760,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>31</v>
@@ -1692,14 +1776,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1709,11 +1793,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1725,14 +1809,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1742,11 +1826,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1758,14 +1842,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1775,14 +1859,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1791,14 +1875,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1808,11 +1892,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>31</v>
@@ -1824,7 +1908,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1841,14 +1925,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1857,14 +1941,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1874,11 +1958,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1890,14 +1974,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1907,11 +1991,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1923,14 +2007,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1940,14 +2024,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1956,14 +2040,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1973,14 +2057,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1989,14 +2073,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2006,11 +2090,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2022,14 +2106,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2039,14 +2123,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2055,14 +2139,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2072,14 +2156,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2088,14 +2172,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2105,14 +2189,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2121,7 +2205,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2138,11 +2222,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2154,20 +2238,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2178,7 +2262,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2200,18 +2284,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2220,31 +2304,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2253,28 +2337,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2286,31 +2370,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2319,28 +2403,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2352,7 +2436,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2365,18 +2449,18 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2385,7 +2469,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2398,18 +2482,18 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2418,31 +2502,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2451,31 +2535,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2484,31 +2568,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2517,31 +2601,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2550,66 +2634,363 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>5896.0500000000002</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>151</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>157</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>158</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>144</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
         <v>152</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
         <v>153</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c t="s" r="Q52" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>159</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>28</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>144</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>160</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>162</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>28</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>144</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>135</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>165</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>28</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>144</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>166</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>168</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>28</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>144</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>169</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>171</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>172</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>144</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>152</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>173</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>21</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>144</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>80</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>174</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>175</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>144</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>14</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>176</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>158</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>144</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>177</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>6329.5550000000003</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>179</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>180</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>181</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2843,10 +3224,55 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -257,6 +257,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
@@ -275,6 +284,15 @@
     <t>55.4400</t>
   </si>
   <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
     <t>GOURYST 0.5 MG 100 TABS.</t>
   </si>
   <si>
@@ -284,6 +302,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>GOUTIFADE 80 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
   </si>
   <si>
@@ -389,9 +416,6 @@
     <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
-    <t>123.00</t>
-  </si>
-  <si>
     <t>123.0000</t>
   </si>
   <si>
@@ -548,7 +572,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 6:48 PM</t>
+    <t>Wednesday, 23 July, 2025 6:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1816,7 +1840,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1833,7 +1857,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1849,7 +1873,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1866,7 +1890,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1882,7 +1906,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1932,7 +1956,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1948,7 +1972,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1965,7 +1989,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1981,7 +2005,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1991,14 +2015,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2007,14 +2031,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2024,14 +2048,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2040,14 +2064,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2057,14 +2081,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2073,14 +2097,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2090,11 +2114,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2106,14 +2130,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2123,14 +2147,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2146,7 +2170,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2156,14 +2180,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>113</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2172,7 +2196,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2189,11 +2213,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2205,14 +2229,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2245,7 +2269,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2262,7 +2286,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2271,14 +2295,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2288,7 +2312,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2311,7 +2335,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2344,7 +2368,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2354,11 +2378,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2370,14 +2394,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2387,14 +2411,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2403,14 +2427,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2420,11 +2444,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2436,14 +2460,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2453,14 +2477,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2469,14 +2493,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2486,14 +2510,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2502,31 +2526,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2535,7 +2559,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2548,18 +2572,18 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2568,31 +2592,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2601,31 +2625,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2634,7 +2658,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2647,18 +2671,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2674,24 +2698,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2700,20 +2724,20 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2746,18 +2770,18 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>164</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2773,21 +2797,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2799,7 +2823,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2812,15 +2836,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2832,31 +2856,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2872,21 +2896,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -2898,31 +2922,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2931,66 +2955,165 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>6329.5550000000003</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>179</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
-        <v>180</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>181</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>21</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>152</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>80</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>182</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>183</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>152</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>14</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>184</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>166</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>152</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>185</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>6430.5349999999999</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>187</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>188</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>189</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3269,10 +3392,25 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -221,21 +221,18 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>7:1</t>
+    <t>6:2</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>23.7600</t>
+    <t>47.5200</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>6:2</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -446,6 +443,18 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>224.0000</t>
+  </si>
+  <si>
     <t>ZADOGLOBIN 20 CAPS</t>
   </si>
   <si>
@@ -524,10 +533,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>5:0</t>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>13:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -572,7 +581,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 6:51 PM</t>
+    <t>Wednesday, 23 July, 2025 6:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1725,7 +1734,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1741,7 +1750,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1755,7 +1764,7 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>31</v>
@@ -1767,7 +1776,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1784,11 +1793,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>31</v>
@@ -1800,7 +1809,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1817,11 +1826,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1833,7 +1842,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1850,11 +1859,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>31</v>
@@ -1866,7 +1875,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1883,11 +1892,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1899,7 +1908,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1916,11 +1925,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>31</v>
@@ -1932,7 +1941,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1949,11 +1958,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>31</v>
@@ -1965,7 +1974,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1982,11 +1991,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>31</v>
@@ -1998,7 +2007,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2015,11 +2024,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>28</v>
@@ -2031,7 +2040,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2048,11 +2057,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2064,7 +2073,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2081,11 +2090,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2097,7 +2106,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2118,7 +2127,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2130,14 +2139,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2151,7 +2160,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>23</v>
@@ -2163,14 +2172,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2184,7 +2193,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>31</v>
@@ -2196,7 +2205,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2213,11 +2222,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2229,14 +2238,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2246,11 +2255,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2262,7 +2271,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2279,14 +2288,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>121</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>122</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2295,7 +2304,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2316,7 +2325,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2328,7 +2337,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2345,11 +2354,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2361,7 +2370,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2378,11 +2387,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2394,7 +2403,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2411,11 +2420,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2427,7 +2436,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2444,11 +2453,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2460,14 +2469,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2493,14 +2502,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2510,11 +2519,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>31</v>
@@ -2526,14 +2535,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2543,11 +2552,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2559,14 +2568,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2583,7 +2592,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>31</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2616,7 +2625,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2632,24 +2641,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2658,31 +2667,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2691,28 +2700,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2724,31 +2733,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2757,20 +2766,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2797,21 +2806,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>28</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2823,28 +2832,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2869,18 +2878,18 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>172</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2902,18 +2911,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>175</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2935,7 +2944,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2962,21 +2971,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -2988,28 +2997,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3021,31 +3030,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3054,66 +3063,99 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>6430.5349999999999</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
         <v>187</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>169</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>155</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
         <v>188</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
         <v>189</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c t="s" r="Q64" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>6694.2950000000001</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>190</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>191</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>192</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3407,10 +3449,15 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -158,6 +158,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>BIPERIDEN 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>CALAMYL LOTION 100 ML</t>
   </si>
   <si>
@@ -263,6 +272,15 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>FONDACLAV 1GM 12 F.C. TABS</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
@@ -386,9 +404,6 @@
     <t>PEPZOL 40MG 7 CAPS</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>51.0000</t>
   </si>
   <si>
@@ -404,9 +419,6 @@
     <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
   </si>
   <si>
-    <t>130.00</t>
-  </si>
-  <si>
     <t>130.0000</t>
   </si>
   <si>
@@ -428,9 +440,6 @@
     <t>3:3</t>
   </si>
   <si>
-    <t>16.8300</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -581,7 +590,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 6:54 PM</t>
+    <t>Wednesday, 23 July, 2025 6:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1519,7 +1528,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1536,7 +1545,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1552,7 +1561,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1585,7 +1594,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1595,14 +1604,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1611,14 +1620,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1651,7 +1660,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1661,14 +1670,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1677,14 +1686,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1701,7 +1710,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1717,7 +1726,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1727,14 +1736,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1743,14 +1752,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1760,14 +1769,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1776,14 +1785,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1793,7 +1802,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1816,7 +1825,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1833,7 +1842,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1849,7 +1858,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1866,7 +1875,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1882,7 +1891,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1899,7 +1908,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1915,7 +1924,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1965,7 +1974,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1981,7 +1990,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2014,7 +2023,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2031,7 +2040,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2064,7 +2073,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2080,7 +2089,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2097,7 +2106,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2113,7 +2122,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2123,11 +2132,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2139,14 +2148,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2156,14 +2165,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2172,14 +2181,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2189,14 +2198,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2205,14 +2214,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2222,14 +2231,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2238,14 +2247,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2255,14 +2264,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2271,7 +2280,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2288,14 +2297,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>121</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2304,14 +2313,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2321,7 +2330,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2344,7 +2353,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2361,7 +2370,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2370,14 +2379,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2387,7 +2396,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2420,11 +2429,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2436,14 +2445,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2453,7 +2462,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2476,7 +2485,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2486,11 +2495,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2509,7 +2518,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2519,14 +2528,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2535,14 +2544,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2552,11 +2561,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2568,14 +2577,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2585,14 +2594,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>145</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2601,14 +2610,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2618,14 +2627,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2634,14 +2643,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2651,14 +2660,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2667,31 +2676,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2700,7 +2709,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2713,18 +2722,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2733,31 +2742,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2773,24 +2782,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2799,31 +2808,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2832,28 +2841,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2865,7 +2874,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2878,15 +2887,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2898,31 +2907,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>175</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2931,7 +2940,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2944,15 +2953,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -2964,7 +2973,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2977,18 +2986,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2997,28 +3006,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3030,28 +3039,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3076,18 +3085,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3103,59 +3112,125 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>188</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
         <v>189</v>
       </c>
-      <c t="s" r="Q64" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>6694.2950000000001</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>158</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>14</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
         <v>190</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>172</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>158</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
         <v>191</v>
       </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
         <v>192</v>
       </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c t="s" r="Q66" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>6754.0249999999996</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>193</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>194</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>195</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3454,10 +3529,20 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -590,7 +590,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 6:55 PM</t>
+    <t>Wednesday, 23 July, 2025 6:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALVERINSPASM 24 S.G.CAPS.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
   </si>
   <si>
@@ -104,9 +116,6 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -239,6 +248,9 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -428,6 +440,15 @@
     <t>123.0000</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -590,7 +611,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 6:58 PM</t>
+    <t>Wednesday, 23 July, 2025 7:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1297,7 +1318,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1307,14 +1328,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1323,14 +1344,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1340,14 +1361,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>30</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>31</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1356,14 +1377,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1373,14 +1394,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1389,14 +1410,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1413,7 +1434,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1429,7 +1450,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1439,14 +1460,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1455,14 +1476,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1479,7 +1500,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1495,7 +1516,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1528,7 +1549,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1545,7 +1566,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1561,7 +1582,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1578,7 +1599,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1594,7 +1615,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1627,7 +1648,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1637,14 +1658,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1653,14 +1674,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1677,7 +1698,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1693,7 +1714,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1703,14 +1724,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1719,14 +1740,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1743,7 +1764,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1759,7 +1780,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1769,14 +1790,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1785,14 +1806,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1802,14 +1823,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1818,14 +1839,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1835,14 +1856,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1851,14 +1872,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1868,14 +1889,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1884,14 +1905,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1901,14 +1922,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1917,14 +1938,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1934,14 +1955,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1950,14 +1971,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1967,14 +1988,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1983,14 +2004,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2000,14 +2021,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2016,7 +2037,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2033,14 +2054,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2049,14 +2070,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2066,14 +2087,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2082,14 +2103,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2099,14 +2120,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2115,7 +2136,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2132,14 +2153,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2148,14 +2169,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2165,14 +2186,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2181,14 +2202,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2198,11 +2219,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2214,14 +2235,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2231,14 +2252,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2254,7 +2275,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2264,14 +2285,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2287,7 +2308,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2297,14 +2318,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2313,14 +2334,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2330,14 +2351,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2346,7 +2367,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2363,14 +2384,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>127</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2379,14 +2400,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2396,11 +2417,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2412,14 +2433,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2429,14 +2450,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>131</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2452,7 +2473,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2462,11 +2483,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2478,14 +2499,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2495,11 +2516,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2511,14 +2532,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2528,7 +2549,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2551,7 +2572,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2561,11 +2582,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2584,7 +2605,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2594,14 +2615,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2617,7 +2638,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2627,14 +2648,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2643,14 +2664,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2660,14 +2681,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>148</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2676,14 +2697,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2693,14 +2714,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2709,14 +2730,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2726,11 +2747,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2742,31 +2763,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2775,20 +2796,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2796,10 +2817,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2808,31 +2829,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2848,13 +2869,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2865,7 +2886,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2881,24 +2902,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2907,31 +2928,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2940,28 +2961,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -2973,31 +2994,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>178</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3006,28 +3027,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3039,28 +3060,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3072,31 +3093,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3105,28 +3126,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3138,31 +3159,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3171,66 +3192,165 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>6754.0249999999996</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>193</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>194</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>21</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>165</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>86</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
         <v>195</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>196</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>165</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>14</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>197</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>179</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>165</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>198</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>6830.8549999999996</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>200</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>201</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>202</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3539,10 +3659,25 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -611,7 +611,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 7:01 PM</t>
+    <t>Wednesday, 23 July, 2025 7:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -590,7 +590,10 @@
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
-    <t>36:0</t>
+    <t>35:0</t>
+  </si>
+  <si>
+    <t>40.0000</t>
   </si>
   <si>
     <t xml:space="preserve">فرش كعب </t>
@@ -611,7 +614,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 7:09 PM</t>
+    <t>Wednesday, 23 July, 2025 7:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3213,10 +3216,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3225,7 +3228,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3258,14 +3261,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3291,7 +3294,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3308,11 +3311,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3320,13 +3323,13 @@
     </row>
     <row r="70" ht="24.75" customHeight="1">
       <c r="P70" s="13">
-        <v>6830.8549999999996</v>
+        <v>6850.8549999999996</v>
       </c>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" ht="16.5" customHeight="1">
       <c t="s" r="A71" s="14">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -3334,13 +3337,13 @@
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
       <c t="s" r="G71" s="15">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H71" s="15"/>
       <c r="I71" s="15"/>
       <c r="J71" s="16"/>
       <c t="s" r="K71" s="17">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L71" s="17"/>
       <c r="M71" s="17"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -206,6 +206,33 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t>CEFTRIAXONE-SANDOZ 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>285.0000</t>
+  </si>
+  <si>
+    <t>CETAFEN-N 120ML SUSP.</t>
+  </si>
+  <si>
+    <t>16.50</t>
+  </si>
+  <si>
+    <t>16.5000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -413,6 +440,18 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>PEPZOL 40MG 7 CAPS</t>
   </si>
   <si>
@@ -428,6 +467,18 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
   </si>
   <si>
@@ -455,6 +506,9 @@
     <t>6:0</t>
   </si>
   <si>
+    <t>VENTOCOUGH WITHOUT SUGAR SYRUP 125ML</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -476,9 +530,6 @@
     <t>XORAXON 1GM I.M. VIAL</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>56.00</t>
   </si>
   <si>
@@ -506,9 +557,6 @@
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -530,12 +578,6 @@
     <t>87:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>جولي ايفا كريم تشقير</t>
   </si>
   <si>
@@ -563,10 +605,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>13:0</t>
+    <t>18:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -614,7 +653,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 7:30 PM</t>
+    <t>Wednesday, 23 July, 2025 7:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1717,7 +1756,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1727,14 +1766,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1743,14 +1782,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1783,7 +1822,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1793,14 +1832,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1809,14 +1848,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1826,14 +1865,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1842,14 +1881,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1859,14 +1898,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1875,14 +1914,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1892,11 +1931,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>25</v>
@@ -1908,14 +1947,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1925,14 +1964,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1941,14 +1980,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1958,14 +1997,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1974,14 +2013,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1991,7 +2030,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2014,7 +2053,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2047,7 +2086,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2080,7 +2119,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2163,7 +2202,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2196,7 +2235,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2229,7 +2268,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2245,7 +2284,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2262,7 +2301,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2278,7 +2317,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2288,14 +2327,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2304,14 +2343,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2321,14 +2360,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2337,14 +2376,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2354,14 +2393,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2370,14 +2409,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2387,11 +2426,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2403,14 +2442,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2420,14 +2459,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2443,7 +2482,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2453,14 +2492,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>131</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2469,7 +2508,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2486,11 +2525,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2502,14 +2541,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2519,11 +2558,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2535,14 +2574,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2552,14 +2591,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2568,14 +2607,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2585,11 +2624,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2601,14 +2640,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2618,11 +2657,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2634,14 +2673,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2651,14 +2690,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2667,14 +2706,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2684,11 +2723,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2700,31 +2739,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2733,14 +2772,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2750,11 +2789,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2766,14 +2805,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2783,14 +2822,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>155</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2799,14 +2838,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2816,11 +2855,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -2832,14 +2871,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2849,11 +2888,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>50</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2865,31 +2904,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2898,31 +2937,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2931,31 +2970,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2964,20 +3003,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>66</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2988,7 +3027,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3010,7 +3049,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3021,7 +3060,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3037,21 +3076,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3063,31 +3102,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3096,7 +3135,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3109,18 +3148,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>185</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3136,24 +3175,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3162,28 +3201,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3195,31 +3234,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3228,28 +3267,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3261,31 +3300,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>197</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3294,66 +3333,264 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>199</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>32</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>153</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
         <v>200</v>
       </c>
-      <c t="s" r="Q69" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>6850.8549999999996</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
         <v>201</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
+      <c t="s" r="Q70" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
         <v>202</v>
       </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>32</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>153</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
         <v>203</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>205</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>206</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>153</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>145</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>208</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>21</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>153</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>95</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>209</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>210</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>153</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>14</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>211</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>193</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>153</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>212</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>7295.3549999999996</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>214</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>215</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>216</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3677,10 +3914,40 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -392,7 +392,13 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>3:2</t>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
   </si>
   <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
@@ -437,9 +443,6 @@
     <t>OPTIDEX -T EYE DROPS 5 ML</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -605,7 +608,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>18:0</t>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>19:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -653,7 +659,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 7:38 PM</t>
+    <t>Wednesday, 23 July, 2025 7:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2463,10 +2469,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2475,14 +2481,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2508,7 +2514,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2525,11 +2531,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2541,14 +2547,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2558,11 +2564,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2574,7 +2580,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2591,14 +2597,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2607,7 +2613,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2628,7 +2634,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2640,14 +2646,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2657,11 +2663,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2673,7 +2679,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2694,7 +2700,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2706,7 +2712,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2723,11 +2729,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2739,7 +2745,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2752,15 +2758,15 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2772,7 +2778,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2793,7 +2799,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2805,7 +2811,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2826,7 +2832,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2838,7 +2844,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2855,11 +2861,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -2871,14 +2877,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2904,7 +2910,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2937,14 +2943,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2970,14 +2976,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2987,11 +2993,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3003,7 +3009,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3020,11 +3026,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>66</v>
@@ -3036,7 +3042,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3053,11 +3059,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3069,7 +3075,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3086,11 +3092,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3102,7 +3108,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3115,15 +3121,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3135,7 +3141,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3148,15 +3154,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3168,20 +3174,20 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3201,28 +3207,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3234,7 +3240,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3247,15 +3253,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3267,28 +3273,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3300,7 +3306,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3313,15 +3319,15 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3333,7 +3339,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3346,18 +3352,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>125</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3366,7 +3372,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3379,15 +3385,15 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3399,7 +3405,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3412,15 +3418,15 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3432,28 +3438,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3465,7 +3471,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3478,7 +3484,7 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3498,20 +3504,20 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3531,28 +3537,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3560,13 +3566,13 @@
     </row>
     <row r="76" ht="25.5" customHeight="1">
       <c r="P76" s="13">
-        <v>7295.3549999999996</v>
+        <v>7309.3549999999996</v>
       </c>
       <c r="Q76" s="13"/>
     </row>
     <row r="77" ht="16.5" customHeight="1">
       <c t="s" r="A77" s="14">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -3574,13 +3580,13 @@
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
       <c t="s" r="G77" s="15">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H77" s="15"/>
       <c r="I77" s="15"/>
       <c r="J77" s="16"/>
       <c t="s" r="K77" s="17">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L77" s="17"/>
       <c r="M77" s="17"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -659,7 +659,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 7:39 PM</t>
+    <t>Wednesday, 23 July, 2025 7:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -278,6 +278,18 @@
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
+    <t>DICYNONE 250MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -659,7 +671,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 7:40 PM</t>
+    <t>Wednesday, 23 July, 2025 7:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2026,7 +2038,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2036,11 +2048,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -2052,14 +2064,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2069,11 +2081,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>25</v>
@@ -2085,14 +2097,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2102,14 +2114,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2118,14 +2130,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2135,14 +2147,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2151,14 +2163,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2168,11 +2180,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2184,7 +2196,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2201,14 +2213,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2217,14 +2229,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2234,14 +2246,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2250,14 +2262,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2267,11 +2279,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2283,7 +2295,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2300,11 +2312,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>25</v>
@@ -2316,14 +2328,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2333,14 +2345,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2349,14 +2361,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2366,14 +2378,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2382,14 +2394,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2399,11 +2411,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2415,14 +2427,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2432,11 +2444,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2448,14 +2460,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2465,14 +2477,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2498,14 +2510,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2514,14 +2526,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2531,14 +2543,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2547,14 +2559,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2587,7 +2599,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2597,14 +2609,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>142</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2630,14 +2642,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2646,14 +2658,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2663,11 +2675,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2686,7 +2698,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2696,11 +2708,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2712,14 +2724,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2729,11 +2741,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2745,20 +2757,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2785,21 +2797,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2811,14 +2823,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2828,11 +2840,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2844,14 +2856,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2861,14 +2873,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2877,14 +2889,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2894,14 +2906,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2910,14 +2922,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2927,11 +2939,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2943,14 +2955,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2960,14 +2972,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2976,14 +2988,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2993,14 +3005,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3016,7 +3028,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3026,14 +3038,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3042,14 +3054,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3059,14 +3071,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3075,7 +3087,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3092,14 +3104,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3108,31 +3120,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3141,31 +3153,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3174,28 +3186,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3207,31 +3219,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3240,28 +3252,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3273,28 +3285,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3306,28 +3318,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3339,7 +3351,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3352,18 +3364,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>200</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3372,7 +3384,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3385,18 +3397,18 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3405,7 +3417,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3418,15 +3430,15 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3438,31 +3450,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3471,31 +3483,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3504,31 +3516,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3537,66 +3549,99 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>7309.3549999999996</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>216</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
         <v>217</v>
       </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>198</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>158</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
         <v>218</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>7323.2150000000001</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>220</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>221</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>222</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3950,10 +3995,15 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -395,6 +395,12 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -494,6 +500,15 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
   </si>
   <si>
@@ -581,9 +596,6 @@
     <t>جل صبار انوفا</t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -671,7 +683,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 7:43 PM</t>
+    <t>Wednesday, 23 July, 2025 7:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2467,7 +2479,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2477,7 +2489,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2500,7 +2512,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2510,14 +2522,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>133</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2526,14 +2538,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2543,14 +2555,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2566,7 +2578,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2576,14 +2588,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2592,14 +2604,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2609,11 +2621,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2625,14 +2637,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2642,14 +2654,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>146</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2658,7 +2670,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2675,14 +2687,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2691,14 +2703,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2708,11 +2720,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2724,14 +2736,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2741,7 +2753,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2764,7 +2776,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2774,11 +2786,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2790,28 +2802,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2823,24 +2835,24 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2863,7 +2875,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2873,14 +2885,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2889,14 +2901,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2906,14 +2918,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2929,7 +2941,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2939,11 +2951,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2962,7 +2974,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2972,14 +2984,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2988,14 +3000,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3005,14 +3017,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3021,14 +3033,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3038,11 +3050,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3054,14 +3066,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3071,14 +3083,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3087,14 +3099,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3104,14 +3116,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3120,14 +3132,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3137,14 +3149,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3153,31 +3165,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3186,7 +3198,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3199,18 +3211,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3226,24 +3238,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3252,31 +3264,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3285,31 +3297,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3318,28 +3330,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3351,7 +3363,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3364,15 +3376,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3384,31 +3396,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>204</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3417,7 +3429,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3430,15 +3442,15 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3450,7 +3462,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3463,18 +3475,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3483,31 +3495,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3516,28 +3528,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>100</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3562,15 +3574,15 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3582,66 +3594,132 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>99</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
         <v>219</v>
       </c>
-      <c t="s" r="Q76" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>7323.2150000000001</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
         <v>220</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>160</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>14</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
         <v>221</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>202</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>160</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
         <v>222</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>7408.9549999999999</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>224</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>225</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>226</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4000,10 +4078,20 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -683,7 +683,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 7:44 PM</t>
+    <t>Wednesday, 23 July, 2025 8:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -218,15 +218,6 @@
     <t>285.0000</t>
   </si>
   <si>
-    <t>CETAFEN-N 120ML SUSP.</t>
-  </si>
-  <si>
-    <t>16.50</t>
-  </si>
-  <si>
-    <t>16.5000</t>
-  </si>
-  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -245,13 +236,13 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>11:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>33.0000</t>
+    <t>66.0000</t>
   </si>
   <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
@@ -443,9 +434,6 @@
     <t>66.00</t>
   </si>
   <si>
-    <t>66.0000</t>
-  </si>
-  <si>
     <t>NEXIUM 40MG 28 F.C. TAB.</t>
   </si>
   <si>
@@ -683,7 +671,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 8:03 PM</t>
+    <t>Wednesday, 23 July, 2025 8:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1819,7 +1807,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1829,11 +1817,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1845,14 +1833,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1862,14 +1850,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1885,7 +1873,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1895,14 +1883,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1911,14 +1899,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1935,7 +1923,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1951,7 +1939,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1961,14 +1949,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1977,14 +1965,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1994,14 +1982,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2010,14 +1998,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2027,11 +2015,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -2043,14 +2031,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2060,11 +2048,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -2076,14 +2064,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2093,7 +2081,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2116,7 +2104,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2133,7 +2121,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2149,7 +2137,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2166,7 +2154,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2182,7 +2170,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2232,7 +2220,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2248,7 +2236,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2265,7 +2253,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2281,7 +2269,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2347,7 +2335,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2364,7 +2352,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2380,7 +2368,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2397,7 +2385,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2413,7 +2401,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2446,7 +2434,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2456,11 +2444,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2472,14 +2460,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2489,11 +2477,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2505,14 +2493,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2522,14 +2510,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2538,14 +2526,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2555,14 +2543,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>135</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2571,14 +2559,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2588,14 +2576,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2611,7 +2599,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2621,11 +2609,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2644,7 +2632,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2654,14 +2642,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>144</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2687,14 +2675,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>148</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2703,14 +2691,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2720,11 +2708,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2743,7 +2731,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2753,11 +2741,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2769,14 +2757,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2786,11 +2774,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2802,20 +2790,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2842,24 +2830,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2868,14 +2856,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2885,14 +2873,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2901,14 +2889,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2918,11 +2906,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2934,14 +2922,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2951,14 +2939,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2967,14 +2955,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2984,14 +2972,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3000,14 +2988,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3017,11 +3005,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3033,14 +3021,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3050,14 +3038,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3066,14 +3054,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3083,14 +3071,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>54</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3106,7 +3094,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>66</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3116,14 +3104,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3132,14 +3120,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3149,14 +3137,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3165,7 +3153,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3182,14 +3170,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3198,31 +3186,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3231,31 +3219,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3264,28 +3252,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3297,31 +3285,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3330,28 +3318,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>197</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3363,28 +3351,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3396,28 +3384,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3429,7 +3417,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3442,18 +3430,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3462,7 +3450,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3475,18 +3463,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>208</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3495,7 +3483,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3508,15 +3496,15 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3528,31 +3516,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>148</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3561,31 +3549,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3594,31 +3582,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3627,99 +3615,66 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
-      <c r="A78" s="7">
-        <v>72</v>
-      </c>
-      <c r="B78" s="7"/>
-      <c t="s" r="C78" s="8">
+      <c r="P78" s="13">
+        <v>7425.4549999999999</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>220</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
         <v>221</v>
       </c>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c t="s" r="H78" s="9">
-        <v>202</v>
-      </c>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c t="s" r="L78" s="10">
-        <v>160</v>
-      </c>
-      <c r="M78" s="10"/>
-      <c t="s" r="N78" s="8">
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
         <v>222</v>
       </c>
-      <c r="O78" s="8"/>
-      <c t="s" r="P78" s="11">
-        <v>223</v>
-      </c>
-      <c t="s" r="Q78" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>7408.9549999999999</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>224</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
-        <v>225</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
-        <v>226</v>
-      </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4083,15 +4038,10 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -671,7 +671,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 8:15 PM</t>
+    <t>Wednesday, 23 July, 2025 8:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -314,6 +314,9 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
     <t>FONDACLAV 1GM 12 F.C. TABS</t>
   </si>
   <si>
@@ -341,6 +344,15 @@
     <t>55.4400</t>
   </si>
   <si>
+    <t>GLIFLOZAMET XR 25/1000 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>357.00</t>
+  </si>
+  <si>
+    <t>357.0000</t>
+  </si>
+  <si>
     <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
   </si>
   <si>
@@ -671,7 +683,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 8:18 PM</t>
+    <t>Wednesday, 23 July, 2025 8:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2180,14 +2192,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2196,7 +2208,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2213,14 +2225,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2229,14 +2241,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2246,14 +2258,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2262,14 +2274,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2279,11 +2291,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2295,14 +2307,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2312,14 +2324,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2328,14 +2340,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2345,14 +2357,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2361,7 +2373,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2378,14 +2390,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2394,14 +2406,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2411,14 +2423,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2427,7 +2439,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2444,11 +2456,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2460,14 +2472,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2477,7 +2489,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2500,7 +2512,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2514,10 +2526,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2526,14 +2538,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2543,14 +2555,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2559,14 +2571,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2576,14 +2588,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2592,14 +2604,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2609,14 +2621,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2625,7 +2637,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2642,14 +2654,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>144</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2658,14 +2670,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2675,11 +2687,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2691,14 +2703,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2708,14 +2720,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2724,14 +2736,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2741,11 +2753,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2757,14 +2769,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2774,11 +2786,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2790,28 +2802,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2823,14 +2835,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2840,14 +2852,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2856,28 +2868,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2889,14 +2901,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2906,14 +2918,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2929,7 +2941,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2939,14 +2951,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2955,14 +2967,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2972,11 +2984,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2988,14 +3000,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3005,14 +3017,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3021,14 +3033,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3038,14 +3050,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3054,14 +3066,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3071,11 +3083,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3087,14 +3099,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3104,14 +3116,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>53</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3120,14 +3132,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3137,14 +3149,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3153,14 +3165,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3170,14 +3182,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3186,31 +3198,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3219,7 +3231,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3232,18 +3244,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3259,24 +3271,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3285,31 +3297,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3318,31 +3330,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3351,28 +3363,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3384,7 +3396,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3397,15 +3409,15 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3417,31 +3429,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>204</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3450,7 +3462,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3463,15 +3475,15 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3483,7 +3495,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3496,18 +3508,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3516,31 +3528,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3549,28 +3561,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3595,15 +3607,15 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3615,66 +3627,132 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>96</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
         <v>219</v>
       </c>
-      <c t="s" r="Q77" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>7425.4549999999999</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
         <v>220</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>160</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>14</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>221</v>
       </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>202</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>160</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
         <v>222</v>
       </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>7858.4549999999999</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>224</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>225</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>226</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4038,10 +4116,20 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -323,7 +323,7 @@
     <t>130.00</t>
   </si>
   <si>
-    <t>42.9000</t>
+    <t>85.8000</t>
   </si>
   <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
@@ -539,10 +539,25 @@
     <t>VENTOCOUGH WITHOUT SUGAR SYRUP 125ML</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>3:3</t>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>33.6600</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -632,10 +647,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>19:0</t>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>20:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -662,9 +677,6 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">فرش كعب </t>
   </si>
   <si>
@@ -683,7 +695,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 8:23 PM</t>
+    <t>Wednesday, 23 July, 2025 8:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2215,7 +2227,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2232,7 +2244,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -3116,14 +3128,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3132,14 +3144,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3149,14 +3161,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>53</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3165,14 +3177,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3182,14 +3194,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3198,14 +3210,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3215,14 +3227,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3231,7 +3243,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3248,14 +3260,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3264,31 +3276,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3297,14 +3309,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3314,14 +3326,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3330,14 +3342,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3347,11 +3359,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3363,14 +3375,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3380,14 +3392,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3396,14 +3408,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3413,11 +3425,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3429,14 +3441,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3446,11 +3458,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3462,14 +3474,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3479,11 +3491,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3495,7 +3507,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3512,14 +3524,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>208</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3528,7 +3540,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3545,14 +3557,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3561,7 +3573,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3578,11 +3590,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3594,14 +3606,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3611,14 +3623,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3627,14 +3639,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3644,14 +3656,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>97</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3660,14 +3672,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3677,14 +3689,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3693,14 +3705,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3710,49 +3722,82 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>7858.4549999999999</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
-        <v>224</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
         <v>225</v>
       </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>207</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>160</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
         <v>226</v>
       </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>7946.1850000000004</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>228</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>229</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>230</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4126,10 +4171,15 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -314,6 +314,15 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
   </si>
   <si>
@@ -422,6 +431,15 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>LEVCET 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -491,15 +509,21 @@
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>57.00</t>
   </si>
   <si>
     <t>57.0000</t>
   </si>
   <si>
+    <t>SLY-IMPRESS SKIN MASSAGE GEL</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -695,7 +719,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 8:24 PM</t>
+    <t>Wednesday, 23 July, 2025 8:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2194,21 +2218,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2220,14 +2244,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2237,14 +2261,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2260,7 +2284,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2277,7 +2301,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2293,7 +2317,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2310,7 +2334,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2326,7 +2350,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2343,7 +2367,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2359,7 +2383,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2376,7 +2400,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2425,7 +2449,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2442,7 +2466,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2458,7 +2482,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2475,7 +2499,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2491,7 +2515,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2524,7 +2548,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2534,11 +2558,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2550,14 +2574,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2567,11 +2591,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2583,14 +2607,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2600,14 +2624,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>136</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2616,14 +2640,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2633,14 +2657,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2649,14 +2673,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2666,11 +2690,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2682,14 +2706,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2699,14 +2723,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2739,7 +2763,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>148</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2748,14 +2772,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2765,11 +2789,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2781,14 +2805,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2805,7 +2829,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2814,14 +2838,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2831,11 +2855,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2854,7 +2878,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2864,11 +2888,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2880,28 +2904,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2913,14 +2937,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2930,14 +2954,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2946,24 +2970,24 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -2986,21 +3010,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3012,14 +3036,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3029,11 +3053,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3045,14 +3069,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3062,11 +3086,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3078,14 +3102,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3095,11 +3119,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3111,14 +3135,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3128,14 +3152,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3144,14 +3168,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3161,14 +3185,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3184,7 +3208,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3194,11 +3218,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3210,14 +3234,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>66</v>
+        <v>185</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3227,14 +3251,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3243,14 +3267,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3260,14 +3284,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>53</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3276,14 +3300,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3293,11 +3317,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3309,31 +3333,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3342,7 +3366,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3355,18 +3379,18 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3375,31 +3399,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3408,31 +3432,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3441,7 +3465,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3454,18 +3478,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3474,31 +3498,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3507,28 +3531,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3553,18 +3577,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>213</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3580,21 +3604,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3606,7 +3630,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3619,15 +3643,15 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3639,31 +3663,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>32</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3679,21 +3703,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>96</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>97</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3705,31 +3729,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>224</v>
+        <v>32</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3738,66 +3762,165 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>158</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>7946.1850000000004</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
-        <v>228</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
-        <v>229</v>
-      </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
         <v>230</v>
       </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>21</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>102</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>96</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>231</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>232</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>102</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>14</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>233</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>215</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>102</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>234</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>8185.1850000000004</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>236</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>237</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>238</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4176,10 +4299,25 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -719,7 +719,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 8:29 PM</t>
+    <t>Wednesday, 23 July, 2025 8:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -719,7 +719,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 8:30 PM</t>
+    <t>Wednesday, 23 July, 2025 8:37 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -281,6 +281,12 @@
     <t>13.8600</t>
   </si>
   <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -314,6 +320,15 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>E-YEAST 20 CAPS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
@@ -575,6 +590,12 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -719,7 +740,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 8:37 PM</t>
+    <t>Wednesday, 23 July, 2025 8:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2086,7 +2107,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2096,11 +2117,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -2119,7 +2140,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2129,11 +2150,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>25</v>
@@ -2145,14 +2166,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2162,14 +2183,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2178,14 +2199,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2195,14 +2216,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2211,31 +2232,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2244,14 +2265,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2261,14 +2282,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2277,31 +2298,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2310,7 +2331,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2327,11 +2348,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2343,14 +2364,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2360,14 +2381,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2376,14 +2397,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2393,11 +2414,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2409,14 +2430,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2426,11 +2447,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2442,14 +2463,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2459,14 +2480,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2475,14 +2496,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2492,14 +2513,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2508,7 +2529,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2525,14 +2546,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2541,14 +2562,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2558,14 +2579,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2574,7 +2595,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2591,7 +2612,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2614,7 +2635,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2624,11 +2645,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2640,14 +2661,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2664,7 +2685,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2673,14 +2694,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2690,11 +2711,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2706,14 +2727,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2723,14 +2744,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2746,7 +2767,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2789,14 +2810,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2805,7 +2826,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2822,14 +2843,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>154</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2838,14 +2859,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2855,11 +2876,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2878,7 +2899,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2888,14 +2909,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>159</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2911,7 +2932,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2921,11 +2942,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2937,14 +2958,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2977,21 +2998,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3003,28 +3024,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3036,31 +3057,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3069,24 +3090,24 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3109,7 +3130,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3119,14 +3140,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3135,14 +3156,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3152,14 +3173,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3175,7 +3196,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3185,11 +3206,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3208,7 +3229,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3218,14 +3239,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3234,14 +3255,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3251,11 +3272,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>50</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3274,7 +3295,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3284,14 +3305,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3300,14 +3321,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3317,11 +3338,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3333,14 +3354,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3350,14 +3371,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3366,14 +3387,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3383,14 +3404,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>53</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3399,14 +3420,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3416,11 +3437,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3432,31 +3453,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3465,7 +3486,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3478,18 +3499,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3505,24 +3526,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3531,31 +3552,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3564,7 +3585,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3577,7 +3598,7 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3585,10 +3606,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3597,31 +3618,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3637,21 +3658,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>32</v>
+        <v>217</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3663,7 +3684,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3676,18 +3697,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>221</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3696,28 +3717,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3729,7 +3750,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3742,15 +3763,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3762,31 +3783,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>32</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3795,28 +3816,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>96</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>97</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3828,31 +3849,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>32</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>15</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3861,66 +3882,165 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>163</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>8185.1850000000004</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>236</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>237</v>
       </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>21</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>107</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>98</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
         <v>238</v>
       </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>239</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>107</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>14</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>240</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>222</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>107</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>241</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>8290.8850000000002</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>243</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>244</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>245</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4314,10 +4434,25 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -257,39 +257,42 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>DICYNONE 250MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
     <t>6:2</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>DICYNONE 250MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>13.8600</t>
-  </si>
-  <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -644,6 +647,12 @@
     <t>160.0000</t>
   </si>
   <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -740,7 +749,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 8:50 PM</t>
+    <t>Wednesday, 23 July, 2025 8:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2025,7 +2034,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2034,7 +2043,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2067,14 +2076,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2140,7 +2149,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2154,7 +2163,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>25</v>
@@ -2166,7 +2175,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2183,11 +2192,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -2199,7 +2208,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2216,11 +2225,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2232,7 +2241,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2249,11 +2258,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2265,7 +2274,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2282,11 +2291,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2298,7 +2307,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2311,7 +2320,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2319,7 +2328,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2331,7 +2340,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2364,7 +2373,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2381,11 +2390,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>30</v>
@@ -2397,7 +2406,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2414,11 +2423,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2430,7 +2439,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2447,11 +2456,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2463,7 +2472,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2480,11 +2489,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2496,7 +2505,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2513,11 +2522,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2529,7 +2538,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2546,11 +2555,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2562,7 +2571,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2579,11 +2588,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>32</v>
@@ -2595,7 +2604,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2612,11 +2621,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2628,7 +2637,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2645,11 +2654,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2661,7 +2670,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2682,7 +2691,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2694,7 +2703,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2715,7 +2724,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2727,14 +2736,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2748,10 +2757,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2760,7 +2769,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2777,11 +2786,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2793,14 +2802,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2814,7 +2823,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2826,7 +2835,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2843,11 +2852,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2859,14 +2868,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2876,7 +2885,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2892,7 +2901,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2909,14 +2918,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2925,7 +2934,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2946,7 +2955,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2958,14 +2967,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2975,11 +2984,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2991,7 +3000,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3012,7 +3021,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3024,7 +3033,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3041,11 +3050,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3057,7 +3066,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3070,15 +3079,15 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3090,7 +3099,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3103,15 +3112,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3123,14 +3132,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3144,7 +3153,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3156,7 +3165,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3173,11 +3182,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3189,7 +3198,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3206,11 +3215,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3222,7 +3231,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3239,11 +3248,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3255,14 +3264,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3288,7 +3297,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3305,11 +3314,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3321,14 +3330,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3338,11 +3347,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3354,7 +3363,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3371,11 +3380,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3387,14 +3396,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3408,7 +3417,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>30</v>
@@ -3420,14 +3429,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3437,11 +3446,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3453,7 +3462,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3470,11 +3479,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>66</v>
@@ -3486,7 +3495,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3503,11 +3512,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3519,7 +3528,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3536,11 +3545,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3552,31 +3561,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3592,24 +3601,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>138</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3618,28 +3627,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3651,31 +3660,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3684,28 +3693,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3724,21 +3733,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3750,28 +3759,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3796,18 +3805,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>228</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3829,18 +3838,18 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q81" s="12">
         <v>231</v>
-      </c>
-      <c t="s" r="Q81" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3862,7 +3871,7 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -3889,24 +3898,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>32</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3915,31 +3924,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>99</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3948,31 +3957,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>239</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3981,66 +3990,99 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>8290.8850000000002</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
         <v>243</v>
       </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>225</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>108</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
         <v>244</v>
       </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
         <v>245</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c t="s" r="Q87" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>8352.7649999999994</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>246</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>247</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>248</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4449,10 +4491,15 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -257,24 +257,27 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>6:1</t>
+    <t>5:1</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>59.4000</t>
+    <t>95.4000</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>DICYNONE 250MG/2ML 3 AMP.</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>DICYNONE 250MG/2ML 3 AMP.</t>
-  </si>
-  <si>
     <t>42.00</t>
   </si>
   <si>
@@ -509,6 +512,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>PARAGESIC 500MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>PEPZOL 40MG 7 CAPS</t>
   </si>
   <si>
@@ -545,9 +557,6 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -557,6 +566,15 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
@@ -566,12 +584,6 @@
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -587,12 +599,6 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
   </si>
   <si>
@@ -749,7 +755,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 8:52 PM</t>
+    <t>Wednesday, 23 July, 2025 8:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2083,7 +2089,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2093,11 +2099,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -2109,7 +2115,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2126,7 +2132,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2142,14 +2148,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2163,7 +2169,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>25</v>
@@ -2175,7 +2181,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2192,11 +2198,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -2208,7 +2214,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2225,11 +2231,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2241,7 +2247,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2258,11 +2264,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2274,7 +2280,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2291,11 +2297,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2307,7 +2313,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2320,7 +2326,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2328,7 +2334,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2340,7 +2346,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2373,7 +2379,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2390,11 +2396,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>30</v>
@@ -2406,7 +2412,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2423,11 +2429,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2439,7 +2445,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2456,11 +2462,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2472,7 +2478,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2489,11 +2495,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2505,7 +2511,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2522,11 +2528,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2538,7 +2544,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2555,11 +2561,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2571,7 +2577,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2588,11 +2594,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>32</v>
@@ -2604,7 +2610,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2621,11 +2627,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2637,7 +2643,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2654,11 +2660,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2670,7 +2676,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2691,7 +2697,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2703,7 +2709,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2724,7 +2730,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2736,14 +2742,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2757,10 +2763,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2769,7 +2775,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2786,11 +2792,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2802,14 +2808,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2823,7 +2829,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2835,7 +2841,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2852,11 +2858,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2868,14 +2874,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2885,7 +2891,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2901,7 +2907,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2918,14 +2924,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2934,7 +2940,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2955,7 +2961,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2967,14 +2973,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2984,11 +2990,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3000,14 +3006,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3017,11 +3023,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3033,14 +3039,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3050,11 +3056,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3066,28 +3072,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3099,28 +3105,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3132,31 +3138,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3165,14 +3171,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3182,14 +3188,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3198,14 +3204,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3215,11 +3221,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3231,14 +3237,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3248,11 +3254,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3264,14 +3270,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3281,11 +3287,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>51</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3297,14 +3303,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3314,14 +3320,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3330,14 +3336,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3347,11 +3353,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3363,14 +3369,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3380,14 +3386,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3396,14 +3402,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3413,14 +3419,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3429,14 +3435,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3446,14 +3452,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3462,14 +3468,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3479,14 +3485,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3495,14 +3501,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3512,14 +3518,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3528,14 +3534,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3545,14 +3551,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3561,14 +3567,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3578,11 +3584,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3594,31 +3600,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3627,31 +3633,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3660,31 +3666,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>15</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3700,24 +3706,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3726,31 +3732,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3759,28 +3765,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3792,7 +3798,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3805,15 +3811,15 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3825,31 +3831,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>231</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3858,7 +3864,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3871,15 +3877,15 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -3891,7 +3897,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3904,18 +3910,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3924,31 +3930,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>32</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3957,28 +3963,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>99</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>100</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -3990,28 +3996,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4023,66 +4029,132 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>100</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>243</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>244</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>109</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>14</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
         <v>245</v>
       </c>
-      <c t="s" r="Q87" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>8352.7649999999994</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>227</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>109</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
         <v>246</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
         <v>247</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c t="s" r="Q89" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>8437.7649999999994</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
         <v>248</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>249</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>250</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4496,10 +4568,20 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>ADWIFLOXACEN 400 MG 7 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>60.50</t>
+  </si>
+  <si>
+    <t>60.5000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>34.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ALVERINSPASM 24 S.G.CAPS.</t>
   </si>
   <si>
@@ -107,9 +119,6 @@
     <t>AMRI-K 10MG/ML 5 AMP. I.M.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
@@ -317,6 +326,12 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -608,10 +623,16 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>33.6600</t>
+    <t>50.4900</t>
+  </si>
+  <si>
+    <t>VONDALOUS 20MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>138.0000</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -659,6 +680,12 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>الويز كبير بالاجنحه</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -755,7 +782,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 8:53 PM</t>
+    <t>Wednesday, 23 July, 2025 9:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1462,7 +1489,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1472,14 +1499,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1495,7 +1522,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1505,14 +1532,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1521,14 +1548,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1538,14 +1565,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>34</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1561,7 +1588,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1571,14 +1598,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1587,14 +1614,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1611,7 +1638,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1627,7 +1654,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1637,14 +1664,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1653,14 +1680,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1677,7 +1704,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1693,7 +1720,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1726,7 +1753,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1743,7 +1770,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1759,7 +1786,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1776,7 +1803,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1792,7 +1819,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1825,7 +1852,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1835,14 +1862,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1851,14 +1878,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1868,14 +1895,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1884,14 +1911,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1901,14 +1928,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1917,14 +1944,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1934,14 +1961,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1957,7 +1984,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1967,14 +1994,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1983,14 +2010,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2007,7 +2034,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2023,7 +2050,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2033,14 +2060,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2049,14 +2076,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2066,14 +2093,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2082,14 +2109,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2099,14 +2126,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2115,14 +2142,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2136,10 +2163,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2148,14 +2175,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2165,14 +2192,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2188,7 +2215,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2198,14 +2225,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2221,7 +2248,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2238,7 +2265,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2254,7 +2281,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2271,7 +2298,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2287,7 +2314,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2297,14 +2324,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2313,31 +2340,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2346,14 +2373,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2363,14 +2390,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2379,31 +2406,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2412,7 +2439,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2429,11 +2456,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2445,14 +2472,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2462,14 +2489,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2478,14 +2505,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2495,11 +2522,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2511,14 +2538,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2528,14 +2555,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2544,14 +2571,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2561,14 +2588,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2577,14 +2604,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2594,14 +2621,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2610,7 +2637,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2627,14 +2654,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2643,14 +2670,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2660,14 +2687,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2676,7 +2703,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2693,7 +2720,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2716,7 +2743,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2726,11 +2753,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2742,14 +2769,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2759,14 +2786,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>146</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2775,14 +2802,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2792,11 +2819,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2808,14 +2835,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2825,14 +2852,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2848,7 +2875,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2891,14 +2918,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2907,7 +2934,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2924,14 +2951,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>161</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2940,14 +2967,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2957,11 +2984,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2980,7 +3007,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2990,14 +3017,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>166</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3013,7 +3040,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3023,11 +3050,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>47</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3039,14 +3066,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3056,7 +3083,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3079,7 +3106,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3112,21 +3139,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3138,28 +3165,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3171,31 +3198,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3211,21 +3238,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3237,14 +3264,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3254,14 +3281,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3277,7 +3304,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3287,7 +3314,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3310,7 +3337,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3320,14 +3347,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3336,14 +3363,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3353,11 +3380,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>51</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3369,14 +3396,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3386,14 +3413,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3402,14 +3429,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3419,11 +3446,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3435,14 +3462,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3452,14 +3479,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3468,14 +3495,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3485,14 +3512,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3508,7 +3535,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3518,14 +3545,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>111</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3534,14 +3561,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3551,14 +3578,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>66</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3567,14 +3594,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3584,14 +3611,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3600,14 +3627,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3617,11 +3644,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3633,14 +3660,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3650,14 +3677,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3666,31 +3693,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3699,31 +3726,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3732,31 +3759,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>15</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3765,28 +3792,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3798,31 +3825,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3831,31 +3858,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3864,31 +3891,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>14</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3897,31 +3924,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>233</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3930,28 +3957,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -3963,28 +3990,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>32</v>
+        <v>236</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>170</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -3996,31 +4023,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>241</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4029,31 +4056,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>101</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4069,24 +4096,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>244</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4095,66 +4122,198 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>8437.7649999999994</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>248</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>249</v>
       </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
         <v>250</v>
       </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>114</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>170</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>251</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>21</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>114</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>103</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>252</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>253</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>114</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>14</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>254</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>236</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>114</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>255</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>8793.0949999999993</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>257</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>258</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>259</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4578,10 +4737,30 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -572,7 +572,7 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>25.7400</t>
+    <t>51.4800</t>
   </si>
   <si>
     <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
@@ -782,7 +782,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 9:04 PM</t>
+    <t>Wednesday, 23 July, 2025 9:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3271,7 +3271,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3288,7 +3288,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -4283,7 +4283,7 @@
     </row>
     <row r="94" ht="25.5" customHeight="1">
       <c r="P94" s="13">
-        <v>8793.0949999999993</v>
+        <v>8818.8349999999991</v>
       </c>
       <c r="Q94" s="13"/>
     </row>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -782,7 +782,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 9:05 PM</t>
+    <t>Wednesday, 23 July, 2025 9:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -146,6 +146,30 @@
     <t>39.6000</t>
   </si>
   <si>
+    <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>ATOMOXAPEX SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -254,6 +278,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>DAFLON 1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>94.0500</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -353,9 +386,6 @@
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>72.0000</t>
   </si>
   <si>
@@ -527,6 +557,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PARAGESIC 500MG 5 SUPP.</t>
   </si>
   <si>
@@ -560,6 +599,12 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>SLY-IMPRESS SKIN MASSAGE GEL</t>
   </si>
   <si>
@@ -587,7 +632,7 @@
     <t>46.00</t>
   </si>
   <si>
-    <t>23.0000</t>
+    <t>SUCAIR MOUTH SPRAY 60ML</t>
   </si>
   <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
@@ -620,6 +665,15 @@
     <t>29.7000</t>
   </si>
   <si>
+    <t>VOLTAREN 1% EMULGEL 25 GM</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -782,7 +836,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 9:06 PM</t>
+    <t>Wednesday, 23 July, 2025 9:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1720,21 +1774,21 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1746,14 +1800,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1763,14 +1817,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1779,7 +1833,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1796,14 +1850,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1812,14 +1866,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1829,11 +1883,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1845,14 +1899,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1862,14 +1916,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1878,14 +1932,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1895,14 +1949,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1911,14 +1965,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1935,7 +1989,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1961,14 +2015,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1977,14 +2031,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1994,14 +2048,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2010,14 +2064,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2027,14 +2081,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2043,14 +2097,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2060,11 +2114,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>29</v>
@@ -2076,14 +2130,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2093,14 +2147,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2116,7 +2170,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2126,11 +2180,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>29</v>
@@ -2142,14 +2196,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2159,11 +2213,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>29</v>
@@ -2175,14 +2229,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2192,14 +2246,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2208,14 +2262,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2225,11 +2279,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>29</v>
@@ -2241,14 +2295,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2258,11 +2312,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>29</v>
@@ -2274,14 +2328,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2291,14 +2345,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2307,14 +2361,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2324,14 +2378,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2340,14 +2394,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2357,11 +2411,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>29</v>
@@ -2373,14 +2427,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2390,14 +2444,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2406,31 +2460,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2439,14 +2493,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2456,14 +2510,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2472,14 +2526,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2489,14 +2543,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2505,28 +2559,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2538,14 +2592,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2555,14 +2609,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2571,14 +2625,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2588,14 +2642,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2604,7 +2658,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2621,14 +2675,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2637,14 +2691,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2654,11 +2708,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>29</v>
@@ -2670,14 +2724,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2687,14 +2741,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2703,7 +2757,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2720,14 +2774,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2736,14 +2790,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2753,14 +2807,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2769,14 +2823,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2786,14 +2840,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2802,14 +2856,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2819,11 +2873,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2835,14 +2889,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2852,14 +2906,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>151</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2868,14 +2922,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2885,11 +2939,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2901,14 +2955,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2918,14 +2972,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2934,14 +2988,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2951,14 +3005,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2967,14 +3021,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2984,11 +3038,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3000,14 +3054,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3017,14 +3071,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>166</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3050,11 +3104,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3066,14 +3120,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3083,11 +3137,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3099,14 +3153,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3116,14 +3170,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3132,14 +3186,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3149,11 +3203,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3165,14 +3219,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3182,11 +3236,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3198,31 +3252,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3231,28 +3285,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3264,14 +3318,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3281,14 +3335,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3297,14 +3351,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3314,11 +3368,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3330,31 +3384,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3363,14 +3417,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3380,11 +3434,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3396,31 +3450,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3429,14 +3483,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3446,14 +3500,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3462,14 +3516,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3479,11 +3533,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3495,14 +3549,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3512,14 +3566,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3528,7 +3582,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3545,14 +3599,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3561,14 +3615,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>149</v>
+        <v>34</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3578,14 +3632,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3594,14 +3648,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3615,10 +3669,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3627,14 +3681,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3644,11 +3698,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>61</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3660,14 +3714,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3677,14 +3731,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3693,14 +3747,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3710,14 +3764,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3726,14 +3780,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3743,14 +3797,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3759,14 +3813,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3776,14 +3830,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3792,31 +3846,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>224</v>
+        <v>159</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3825,31 +3879,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3858,31 +3912,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3891,31 +3945,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3924,31 +3978,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3957,7 +4011,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3970,15 +4024,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -3990,31 +4044,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>236</v>
+        <v>29</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4023,28 +4077,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>43</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4056,31 +4110,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>242</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4089,7 +4143,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4102,7 +4156,7 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4110,10 +4164,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4122,31 +4176,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4155,31 +4209,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4188,28 +4242,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>103</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>104</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4221,31 +4275,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4254,66 +4308,297 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>236</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>8818.8349999999991</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>257</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
         <v>258</v>
       </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>18</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>50</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>228</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
         <v>259</v>
       </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c t="s" r="Q94" s="12">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>261</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>18</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>50</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>262</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>264</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>18</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>50</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>265</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>267</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>268</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>50</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>180</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>269</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>21</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>50</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>114</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>270</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>271</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>50</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>14</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>272</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>254</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>50</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>273</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>274</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>9189.8850000000002</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>275</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>276</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>277</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4757,10 +5042,45 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -836,7 +836,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 9:07 PM</t>
+    <t>Wednesday, 23 July, 2025 9:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -590,6 +590,15 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t>PRAVOTIN 100MG 30 SACHETS</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>360.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
@@ -734,6 +743,12 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
     <t>الويز كبير بالاجنحه</t>
   </si>
   <si>
@@ -836,7 +851,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 9:14 PM</t>
+    <t>Wednesday, 23 July, 2025 9:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3391,13 +3406,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3424,21 +3439,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3450,24 +3465,24 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>87</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3490,24 +3505,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3516,14 +3531,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3533,14 +3548,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3549,14 +3564,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3566,14 +3581,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3582,14 +3597,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3599,14 +3614,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3615,14 +3630,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3632,11 +3647,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3648,14 +3663,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3665,14 +3680,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>146</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3681,14 +3696,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>212</v>
+        <v>73</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3698,14 +3713,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>61</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3714,14 +3729,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3731,11 +3746,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3747,14 +3762,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3764,11 +3779,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3780,14 +3795,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3797,14 +3812,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3813,14 +3828,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3830,14 +3845,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3853,7 +3868,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3863,14 +3878,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3879,14 +3894,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3896,14 +3911,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3919,7 +3934,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3929,11 +3944,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3945,14 +3960,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3969,7 +3984,7 @@
         <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3985,7 +4000,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4002,7 +4017,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>29</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4035,7 +4050,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4051,7 +4066,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4061,14 +4076,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>168</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4077,31 +4092,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>29</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>155</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4110,14 +4125,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4127,14 +4142,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>114</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4150,7 +4165,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4160,14 +4175,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>43</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4176,14 +4191,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4193,14 +4208,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4209,14 +4224,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4226,14 +4241,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>180</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4242,14 +4257,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4259,14 +4274,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>14</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4348,7 +4363,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>259</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4358,14 +4373,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>260</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4374,7 +4389,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4391,11 +4406,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4407,7 +4422,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4424,14 +4439,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4440,14 +4455,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>268</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4457,14 +4472,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>180</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4480,7 +4495,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4490,11 +4505,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>114</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>115</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4506,14 +4521,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4523,11 +4538,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>15</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4539,14 +4554,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4556,49 +4571,115 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>114</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>9189.8850000000002</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
         <v>275</v>
       </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
         <v>276</v>
       </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>50</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>14</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
         <v>277</v>
       </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>259</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>50</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>278</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>279</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>9574.8850000000002</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>280</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>281</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>282</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5077,10 +5158,20 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -851,7 +851,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 9:24 PM</t>
+    <t>Wednesday, 23 July, 2025 9:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -332,6 +332,15 @@
     <t>62.00</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -779,9 +788,6 @@
     <t>جولي ايفا كريم تشقير</t>
   </si>
   <si>
-    <t>70.00</t>
-  </si>
-  <si>
     <t>70.0000</t>
   </si>
   <si>
@@ -851,7 +857,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 9:25 PM</t>
+    <t>Wednesday, 23 July, 2025 9:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2383,7 +2389,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2393,7 +2399,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2416,7 +2422,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2426,7 +2432,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2449,7 +2455,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2466,7 +2472,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2482,7 +2488,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2492,14 +2498,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2508,14 +2514,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2525,14 +2531,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2548,7 +2554,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2581,24 +2587,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2607,28 +2613,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2640,14 +2646,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2657,14 +2663,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2680,7 +2686,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2697,7 +2703,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2713,7 +2719,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2730,7 +2736,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2746,7 +2752,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2763,7 +2769,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2779,7 +2785,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2796,7 +2802,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2845,7 +2851,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2862,7 +2868,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2878,7 +2884,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2895,7 +2901,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2911,7 +2917,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2944,7 +2950,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2954,11 +2960,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2970,14 +2976,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2987,11 +2993,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3003,14 +3009,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3020,14 +3026,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>161</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3036,14 +3042,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3053,14 +3059,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>164</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3076,7 +3082,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3086,14 +3092,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3102,14 +3108,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3119,14 +3125,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3142,7 +3148,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3152,11 +3158,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3175,7 +3181,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3185,14 +3191,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>176</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3201,7 +3207,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3218,14 +3224,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3234,14 +3240,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3251,11 +3257,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3267,14 +3273,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3284,14 +3290,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3307,7 +3313,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3317,14 +3323,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3340,7 +3346,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3350,11 +3356,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3366,14 +3372,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3383,7 +3389,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>64</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3406,7 +3412,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3439,13 +3445,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3472,21 +3478,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3498,24 +3504,24 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>87</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3538,24 +3544,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3564,14 +3570,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3581,14 +3587,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3597,14 +3603,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3614,14 +3620,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3630,14 +3636,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3647,14 +3653,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3663,14 +3669,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3680,11 +3686,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3696,14 +3702,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3713,14 +3719,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>149</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3729,14 +3735,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3746,14 +3752,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>61</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>62</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3762,14 +3768,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>23</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3779,11 +3785,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3795,14 +3801,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3812,11 +3818,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>186</v>
+        <v>117</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3828,14 +3834,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3845,14 +3851,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3861,14 +3867,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3878,14 +3884,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>125</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3901,7 +3907,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3911,14 +3917,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>64</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3927,14 +3933,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3944,14 +3950,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>64</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3967,7 +3973,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>230</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3977,11 +3983,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -3993,14 +3999,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4017,7 +4023,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4033,7 +4039,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4050,7 +4056,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>29</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4083,7 +4089,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4099,7 +4105,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4109,14 +4115,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4125,31 +4131,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>115</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4158,14 +4164,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4175,11 +4181,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4191,14 +4197,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4208,14 +4214,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>43</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4231,7 +4237,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4241,14 +4247,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>155</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4257,14 +4263,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4274,11 +4280,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>14</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4290,14 +4296,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>254</v>
+        <v>179</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4307,14 +4313,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4323,14 +4329,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>257</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4340,11 +4346,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4363,7 +4369,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>259</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4373,11 +4379,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>181</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4396,7 +4402,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>261</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4406,11 +4412,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4422,7 +4428,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4439,14 +4445,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>265</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4455,7 +4461,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4472,14 +4478,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4488,7 +4494,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4505,11 +4511,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4521,14 +4527,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>273</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4538,14 +4544,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>180</v>
+        <v>272</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4561,7 +4567,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>21</v>
+        <v>275</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4571,14 +4577,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>115</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4587,14 +4593,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>276</v>
+        <v>21</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4604,14 +4610,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4627,7 +4633,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4637,49 +4643,82 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>14</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
         <v>279</v>
       </c>
-      <c t="s" r="Q102" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>9574.8850000000002</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>261</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>50</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
         <v>280</v>
       </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
         <v>281</v>
       </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
+      <c t="s" r="Q103" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>9609.8850000000002</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
         <v>282</v>
       </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>283</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>284</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5168,10 +5207,15 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
@@ -857,7 +866,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 9:27 PM</t>
+    <t>Wednesday, 23 July, 2025 9:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1564,7 +1573,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1574,11 +1583,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>21</v>
@@ -1590,14 +1599,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1614,7 +1623,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1623,14 +1632,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1640,14 +1649,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1656,14 +1665,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1673,14 +1682,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>37</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1696,7 +1705,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1706,14 +1715,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1722,14 +1731,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1746,7 +1755,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1762,7 +1771,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1772,14 +1781,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1788,31 +1797,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1821,31 +1830,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1854,14 +1863,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1878,7 +1887,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1894,7 +1903,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1927,7 +1936,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1944,7 +1953,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1960,7 +1969,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1977,7 +1986,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1993,7 +2002,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2026,7 +2035,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2036,14 +2045,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2052,14 +2061,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2069,14 +2078,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2085,14 +2094,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2102,14 +2111,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2118,14 +2127,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2135,14 +2144,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2158,7 +2167,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2168,14 +2177,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2184,14 +2193,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2208,7 +2217,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2224,7 +2233,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2241,7 +2250,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2257,7 +2266,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2267,14 +2276,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>99</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2283,14 +2292,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2300,14 +2309,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2316,14 +2325,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2333,14 +2342,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2349,14 +2358,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2370,10 +2379,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2382,14 +2391,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2399,14 +2408,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2422,7 +2431,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2432,14 +2441,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2455,7 +2464,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2465,14 +2474,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2488,7 +2497,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2505,7 +2514,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2521,7 +2530,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2531,14 +2540,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2547,14 +2556,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2564,14 +2573,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2587,7 +2596,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2604,7 +2613,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2620,24 +2629,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2646,28 +2655,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2679,14 +2688,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2696,14 +2705,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2719,7 +2728,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2736,7 +2745,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2752,7 +2761,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2769,7 +2778,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2785,7 +2794,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2802,7 +2811,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2818,7 +2827,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2835,7 +2844,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2868,7 +2877,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2884,7 +2893,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2901,7 +2910,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2917,7 +2926,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2934,7 +2943,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2950,7 +2959,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2983,7 +2992,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2993,11 +3002,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3009,14 +3018,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3026,11 +3035,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3042,14 +3051,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3059,14 +3068,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>164</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3075,14 +3084,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3092,14 +3101,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>167</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3115,7 +3124,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3125,14 +3134,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3141,14 +3150,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3158,14 +3167,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3181,7 +3190,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3191,11 +3200,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3214,7 +3223,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3224,14 +3233,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>179</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3240,7 +3249,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3257,14 +3266,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3273,14 +3282,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3290,11 +3299,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3306,14 +3315,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3323,14 +3332,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3346,7 +3355,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3356,14 +3365,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3379,7 +3388,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3389,11 +3398,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3405,14 +3414,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3422,7 +3431,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>67</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3445,7 +3454,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3478,13 +3487,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3511,21 +3520,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3537,24 +3546,24 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>90</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3577,24 +3586,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3603,14 +3612,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3620,14 +3629,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3636,14 +3645,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3653,14 +3662,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3669,14 +3678,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3686,14 +3695,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3702,14 +3711,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3719,11 +3728,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3735,14 +3744,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3752,14 +3761,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3768,14 +3777,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3785,14 +3794,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>61</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3801,14 +3810,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3818,11 +3827,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3834,14 +3843,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3851,11 +3860,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>189</v>
+        <v>120</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3867,14 +3876,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>224</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3884,14 +3893,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>125</v>
+        <v>192</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3900,14 +3909,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3917,14 +3926,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3940,7 +3949,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3950,14 +3959,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3966,14 +3975,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3983,14 +3992,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>67</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4006,7 +4015,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4016,11 +4025,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4032,14 +4041,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4056,7 +4065,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4072,7 +4081,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4089,7 +4098,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4122,7 +4131,7 @@
         <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4138,7 +4147,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4148,14 +4157,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>171</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4164,31 +4173,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>32</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>118</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4197,28 +4206,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4230,31 +4239,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>253</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>46</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4270,24 +4279,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>158</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4296,28 +4305,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4329,31 +4338,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>257</v>
+        <v>182</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>184</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4362,28 +4371,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4395,28 +4404,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>261</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>183</v>
+        <v>111</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>184</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4428,28 +4437,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>264</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>186</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4474,18 +4483,18 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>267</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4507,18 +4516,18 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q98" s="12">
         <v>270</v>
-      </c>
-      <c t="s" r="Q98" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4540,7 +4549,7 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4567,24 +4576,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>275</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>183</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4593,31 +4602,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>21</v>
+        <v>278</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>118</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4626,31 +4635,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>278</v>
+        <v>21</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4659,66 +4668,99 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>280</v>
+        <v>14</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>281</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>9609.8850000000002</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
         <v>282</v>
       </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>264</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>53</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
         <v>283</v>
       </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
         <v>284</v>
       </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c t="s" r="Q104" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>9667.8850000000002</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>285</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>286</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>287</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5212,10 +5254,15 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -491,6 +491,15 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>INTEGROL 10MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
@@ -530,6 +539,15 @@
     <t>7:2</t>
   </si>
   <si>
+    <t>MEMEXA 10MG 30F.C. TAB.</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
     <t>METAPSIN 10 F.C. TABS.</t>
   </si>
   <si>
@@ -539,6 +557,12 @@
     <t>100.0000</t>
   </si>
   <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -866,7 +890,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 9:28 PM</t>
+    <t>Wednesday, 23 July, 2025 9:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3025,7 +3049,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3035,11 +3059,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3051,14 +3075,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3068,11 +3092,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3084,14 +3108,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3101,14 +3125,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>167</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3117,14 +3141,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3134,14 +3158,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>170</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3157,7 +3181,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3167,14 +3191,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3183,14 +3207,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3200,14 +3224,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3223,7 +3247,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3233,14 +3257,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3273,7 +3297,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>182</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3282,14 +3306,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3299,14 +3323,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3336,7 +3360,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3348,14 +3372,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3365,14 +3389,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q63" s="12">
         <v>190</v>
-      </c>
-      <c t="s" r="Q63" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3388,7 +3412,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3398,11 +3422,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3414,14 +3438,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3431,7 +3455,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>67</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3454,7 +3478,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3464,14 +3488,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3487,7 +3511,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3520,21 +3544,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>67</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3546,14 +3570,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3563,7 +3587,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3586,13 +3610,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3619,24 +3643,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3645,7 +3669,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3662,11 +3686,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3678,31 +3702,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3711,14 +3735,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3728,14 +3752,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3744,14 +3768,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3761,11 +3785,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3777,14 +3801,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3794,11 +3818,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>32</v>
@@ -3810,14 +3834,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3827,11 +3851,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3843,14 +3867,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3860,11 +3884,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>121</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3876,14 +3900,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3893,14 +3917,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3909,14 +3933,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3926,14 +3950,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3942,14 +3966,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3959,11 +3983,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3975,14 +3999,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3992,14 +4016,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4008,14 +4032,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4025,14 +4049,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>128</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4048,7 +4072,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4058,11 +4082,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4074,14 +4098,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4091,14 +4115,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>67</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>80</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4107,7 +4131,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4124,14 +4148,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4140,14 +4164,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>244</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4157,11 +4181,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4173,14 +4197,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4190,14 +4214,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>174</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4213,24 +4237,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>120</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>121</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4239,28 +4263,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>161</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4272,31 +4296,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4305,14 +4329,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4322,14 +4346,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>120</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4338,14 +4362,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4355,14 +4379,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4371,14 +4395,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>260</v>
+        <v>21</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4388,14 +4412,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>187</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4404,7 +4428,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4421,14 +4445,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>111</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4437,14 +4461,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>264</v>
+        <v>190</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4454,14 +4478,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>187</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4470,14 +4494,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>268</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4487,11 +4511,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>194</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4503,7 +4527,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4520,14 +4544,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>237</v>
+        <v>111</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>270</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4543,7 +4567,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4553,11 +4577,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>272</v>
+        <v>194</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>273</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4569,7 +4593,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4586,11 +4610,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4602,14 +4626,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>278</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4619,14 +4643,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>186</v>
+        <v>245</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4642,7 +4666,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4652,11 +4676,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>121</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4668,14 +4692,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>281</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4685,14 +4709,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4701,14 +4725,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4718,49 +4742,148 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>194</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>9667.8850000000002</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>285</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
-        <v>286</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
         <v>287</v>
       </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>21</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>53</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>120</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>288</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>289</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>53</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>14</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>290</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>272</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>53</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>291</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>9890.0949999999993</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>293</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>294</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>295</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5259,10 +5382,25 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -275,6 +275,18 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -374,9 +386,6 @@
     <t>25.00</t>
   </si>
   <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>E-MOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -587,6 +596,15 @@
     <t>OPTIDEX -T EYE DROPS 5 ML</t>
   </si>
   <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -602,99 +620,123 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>4:2</t>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>115.0000</t>
+  </si>
+  <si>
+    <t>PARAGESIC 500MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>PEPZOL 40MG 7 CAPS</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>POLYFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>PRAVOTIN 100MG 30 SACHETS</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>360.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>SLY-IMPRESS SKIN MASSAGE GEL</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>SUCAIR MOUTH SPRAY 60ML</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
     <t>23.0000</t>
   </si>
   <si>
-    <t>PARAGESIC 500MG 5 SUPP.</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>PEPZOL 40MG 7 CAPS</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>POLYFRESH 0.2% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>PRAVOTIN 100MG 30 SACHETS</t>
-  </si>
-  <si>
-    <t>360.00</t>
-  </si>
-  <si>
-    <t>360.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>SLY-IMPRESS SKIN MASSAGE GEL</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>SUCAIR MOUTH SPRAY 60ML</t>
-  </si>
-  <si>
-    <t>TORSERETIC 20MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>123.0000</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -890,7 +932,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 9:30 PM</t>
+    <t>Wednesday, 23 July, 2025 10:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2241,7 +2283,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2257,7 +2299,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2267,14 +2309,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2283,14 +2325,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2300,11 +2342,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>32</v>
@@ -2316,14 +2358,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2340,7 +2382,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>102</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2349,14 +2391,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2366,14 +2408,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2382,14 +2424,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2399,11 +2441,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>32</v>
@@ -2422,7 +2464,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2432,11 +2474,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>32</v>
@@ -2448,14 +2490,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2465,11 +2507,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>32</v>
@@ -2481,14 +2523,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2498,11 +2540,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>32</v>
@@ -2514,14 +2556,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2531,11 +2573,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>32</v>
@@ -2547,14 +2589,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2564,14 +2606,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2580,14 +2622,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2597,14 +2639,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2613,14 +2655,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2630,14 +2672,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2653,7 +2695,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2686,24 +2728,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2712,28 +2754,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2745,14 +2787,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2762,14 +2804,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2785,7 +2827,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2802,7 +2844,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2818,7 +2860,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2835,7 +2877,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2851,7 +2893,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2868,7 +2910,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2884,7 +2926,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2901,7 +2943,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2950,7 +2992,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2967,7 +3009,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2983,7 +3025,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3000,7 +3042,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3016,7 +3058,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3082,7 +3124,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3092,11 +3134,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3108,14 +3150,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3125,11 +3167,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3141,14 +3183,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3158,14 +3200,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>170</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3174,14 +3216,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3191,14 +3233,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>173</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3214,7 +3256,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3224,14 +3266,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3240,14 +3282,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3257,11 +3299,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>32</v>
@@ -3280,7 +3322,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3297,7 +3339,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3313,7 +3355,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3323,14 +3365,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3339,14 +3381,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3356,14 +3398,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3379,7 +3421,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3389,14 +3431,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>190</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3405,7 +3447,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3422,14 +3464,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3438,14 +3480,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3455,11 +3497,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>58</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3471,14 +3513,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3488,14 +3530,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3504,14 +3546,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3544,7 +3586,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3554,14 +3596,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3570,14 +3612,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>193</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3587,11 +3629,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3603,7 +3645,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3620,7 +3662,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>67</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3643,13 +3685,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3686,11 +3728,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>90</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3702,14 +3744,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3719,11 +3761,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3735,14 +3777,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3752,14 +3794,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3768,28 +3810,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3801,14 +3843,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3818,14 +3860,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>43</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3834,14 +3876,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3851,14 +3893,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3867,14 +3909,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3884,11 +3926,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3900,14 +3942,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3917,14 +3959,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3933,14 +3975,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3950,11 +3992,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3966,14 +4008,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3983,14 +4025,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>120</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>121</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3999,14 +4041,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>37</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4016,11 +4058,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4032,14 +4074,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4049,11 +4091,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>32</v>
@@ -4065,14 +4107,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4082,11 +4124,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>64</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4098,14 +4140,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4115,14 +4157,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4131,14 +4173,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4148,11 +4190,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4164,14 +4206,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>244</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4181,14 +4223,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4197,14 +4239,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4214,14 +4256,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4230,14 +4272,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4247,14 +4289,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>67</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4263,7 +4305,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4280,11 +4322,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4296,14 +4338,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>32</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4313,14 +4355,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4329,31 +4371,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>120</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>121</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4362,31 +4404,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>261</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>46</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>164</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4395,31 +4437,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4428,31 +4470,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>183</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>164</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4461,14 +4503,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>190</v>
+        <v>273</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4478,14 +4520,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4494,14 +4536,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4511,11 +4553,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>194</v>
+        <v>46</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4527,14 +4569,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4544,14 +4586,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>111</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4560,14 +4602,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>272</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4577,14 +4619,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4593,14 +4635,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4610,14 +4652,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>14</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4626,14 +4668,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4643,14 +4685,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>278</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4659,7 +4701,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4676,11 +4718,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>115</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4692,14 +4734,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>286</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4709,11 +4751,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>200</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4725,14 +4767,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>286</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4742,14 +4784,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4758,14 +4800,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4775,14 +4817,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>120</v>
+        <v>259</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>121</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>292</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4791,14 +4833,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>289</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4808,14 +4850,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>14</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>15</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4824,14 +4866,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>272</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4841,49 +4883,181 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>9890.0949999999993</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>293</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
-        <v>294</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
-        <v>295</v>
-      </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>299</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>300</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>53</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>200</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>291</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>301</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>21</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>53</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>124</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>302</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>303</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>53</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>14</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>304</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>286</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>53</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>305</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>306</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>10169.094999999999</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>307</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>308</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>309</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5397,10 +5571,30 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -209,6 +209,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>B-FRESH 0.05% (500ML) MOUTHWASH</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>BIPERIDEN 2MG 30 TAB.</t>
   </si>
   <si>
@@ -392,6 +401,15 @@
     <t>2:1</t>
   </si>
   <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -419,6 +437,12 @@
     <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
   </si>
   <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
     <t>FONDACLAV 1GM 12 F.C. TABS</t>
   </si>
   <si>
@@ -434,7 +458,7 @@
     <t>22.00</t>
   </si>
   <si>
-    <t>22.0000</t>
+    <t>44.0000</t>
   </si>
   <si>
     <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
@@ -569,9 +593,6 @@
     <t>MILGA 40 TABLETS</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -668,6 +689,15 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>REVI 2 CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>RISPADEX 1MG/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -737,6 +767,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>TRITTICO 100MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>21.5000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -845,9 +884,6 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>90.0000</t>
-  </si>
-  <si>
     <t>جل صبار انوفا</t>
   </si>
   <si>
@@ -932,7 +968,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 10:05 PM</t>
+    <t>Wednesday, 23 July, 2025 10:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2035,7 +2071,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2052,7 +2088,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2068,7 +2104,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2085,7 +2121,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2101,7 +2137,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2134,7 +2170,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2144,14 +2180,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2160,14 +2196,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2177,14 +2213,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2193,14 +2229,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2210,14 +2246,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2226,14 +2262,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2243,14 +2279,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2266,7 +2302,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2276,11 +2312,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>32</v>
@@ -2292,14 +2328,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2309,14 +2345,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2325,14 +2361,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2349,7 +2385,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2365,7 +2401,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2398,7 +2434,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2408,14 +2444,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>106</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2424,14 +2460,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2441,14 +2477,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2457,14 +2493,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2474,11 +2510,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>32</v>
@@ -2490,14 +2526,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2511,7 +2547,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>32</v>
@@ -2523,14 +2559,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2540,11 +2576,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>32</v>
@@ -2563,7 +2599,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2573,7 +2609,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2596,7 +2632,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2606,7 +2642,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2629,7 +2665,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2643,10 +2679,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2655,14 +2691,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2672,14 +2708,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2688,14 +2724,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2705,14 +2741,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2728,13 +2764,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2761,24 +2797,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2787,14 +2823,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2804,14 +2840,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2820,31 +2856,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2853,7 +2889,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2870,11 +2906,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2893,7 +2929,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2907,7 +2943,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>32</v>
@@ -2919,14 +2955,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2936,14 +2972,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2952,14 +2988,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2969,14 +3005,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2985,14 +3021,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3002,11 +3038,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>32</v>
@@ -3018,14 +3054,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3035,14 +3071,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3051,7 +3087,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3068,14 +3104,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3084,14 +3120,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3101,14 +3137,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3117,14 +3153,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3134,14 +3170,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3150,7 +3186,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3167,7 +3203,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3190,7 +3226,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3200,11 +3236,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3216,14 +3252,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3233,14 +3269,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>173</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3256,7 +3292,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3266,11 +3302,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>46</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3282,14 +3318,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3299,14 +3335,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3315,14 +3351,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3332,14 +3368,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>46</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>181</v>
-      </c>
-      <c t="s" r="Q60" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3355,7 +3391,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3388,7 +3424,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3398,11 +3434,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>32</v>
@@ -3421,7 +3457,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>37</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3431,14 +3467,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3471,7 +3507,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>193</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3480,14 +3516,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3497,14 +3533,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>172</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3513,14 +3549,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3530,14 +3566,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3546,14 +3582,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3563,14 +3599,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3579,14 +3615,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3596,14 +3632,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3612,14 +3648,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3629,14 +3665,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>39</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3645,14 +3681,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3662,11 +3698,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3678,14 +3714,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3695,14 +3731,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3711,14 +3747,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3728,11 +3764,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3744,28 +3780,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>70</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3777,14 +3813,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3794,11 +3830,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3810,28 +3846,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3843,31 +3879,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>43</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3883,7 +3919,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3900,7 +3936,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3926,7 +3962,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3949,13 +3985,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3966,7 +4002,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3982,7 +4018,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3992,14 +4028,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4008,14 +4044,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4025,14 +4061,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4041,14 +4077,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4058,11 +4094,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4074,14 +4110,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4091,14 +4127,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>32</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4107,14 +4143,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4124,11 +4160,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4140,14 +4176,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4157,14 +4193,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>124</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>91</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4173,14 +4209,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>37</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4190,11 +4226,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4206,14 +4242,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4223,11 +4259,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>131</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>32</v>
@@ -4239,14 +4275,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4256,14 +4292,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4272,14 +4308,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>171</v>
+        <v>256</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4289,14 +4325,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4305,14 +4341,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4322,11 +4358,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>127</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4338,14 +4374,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4355,11 +4391,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4371,14 +4407,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4388,14 +4424,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>137</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4404,14 +4440,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4421,14 +4457,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4437,14 +4473,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4454,14 +4490,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>70</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4470,14 +4506,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4487,14 +4523,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>183</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4503,28 +4539,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>124</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>91</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4543,24 +4579,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>275</v>
+        <v>83</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>46</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>167</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4569,31 +4605,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4602,7 +4638,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4615,18 +4651,18 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>167</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4635,31 +4671,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4668,14 +4704,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4685,11 +4721,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4701,14 +4737,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>288</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4718,11 +4754,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4734,14 +4770,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>286</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4751,14 +4787,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>201</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4767,7 +4803,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4784,14 +4820,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4800,14 +4836,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4817,14 +4853,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>292</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4840,7 +4876,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>294</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4850,11 +4886,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>207</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4866,7 +4902,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4883,11 +4919,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>118</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4899,14 +4935,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4916,14 +4952,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>291</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4932,14 +4968,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4949,11 +4985,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>124</v>
+        <v>300</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>91</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -4972,7 +5008,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>303</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4982,14 +5018,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>14</v>
+        <v>272</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>15</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>304</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4998,14 +5034,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>286</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5015,49 +5051,214 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>10169.094999999999</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>307</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
         <v>308</v>
       </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>18</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>53</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
         <v>309</v>
       </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>310</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>311</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>312</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>53</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>207</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>303</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>313</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>21</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>53</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>127</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>314</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>315</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>53</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>14</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>316</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>298</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>53</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>317</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>318</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>10547.275</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>319</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>320</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>321</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5591,10 +5792,35 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -968,7 +968,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 10:20 PM</t>
+    <t>Wednesday, 23 July, 2025 10:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -287,114 +287,117 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
-    <t>6:1</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>50.00</t>
   </si>
   <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DAFLON 1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>94.0500</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>95.4000</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>DICYNONE 250MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>EGYCUSATE 20 MG/5 ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
     <t>25.0000</t>
   </si>
   <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>DAFLON 1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>285.00</t>
-  </si>
-  <si>
-    <t>94.0500</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>95.4000</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>DICYNONE 250MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>13.8600</t>
-  </si>
-  <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DRAMENEX 50MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>EGYCUSATE 20 MG/5 ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
     <t>E-MOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -779,9 +782,6 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>VENTOCOUGH WITHOUT SUGAR SYRUP 125ML</t>
   </si>
   <si>
@@ -863,9 +863,6 @@
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -968,7 +965,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 10:21 PM</t>
+    <t>Wednesday, 23 July, 2025 10:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2352,7 +2349,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2712,7 +2709,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2724,14 +2721,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2757,7 +2754,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2774,11 +2771,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>32</v>
@@ -2790,7 +2787,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2807,11 +2804,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>32</v>
@@ -2823,7 +2820,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2840,11 +2837,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>32</v>
@@ -2856,7 +2853,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2877,7 +2874,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2889,7 +2886,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2922,7 +2919,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2939,11 +2936,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>32</v>
@@ -2955,7 +2952,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2972,11 +2969,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>37</v>
@@ -2988,7 +2985,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3005,11 +3002,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3021,7 +3018,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3038,11 +3035,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>32</v>
@@ -3054,7 +3051,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3071,11 +3068,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3087,7 +3084,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3104,11 +3101,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>32</v>
@@ -3120,7 +3117,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3137,11 +3134,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>32</v>
@@ -3153,7 +3150,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3170,11 +3167,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -3186,7 +3183,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3203,11 +3200,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3219,7 +3216,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3236,11 +3233,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3252,7 +3249,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3269,11 +3266,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3285,7 +3282,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3306,7 +3303,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3318,7 +3315,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3339,7 +3336,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3351,14 +3348,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3372,10 +3369,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3384,7 +3381,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3401,11 +3398,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3417,14 +3414,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3450,7 +3447,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3467,11 +3464,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>32</v>
@@ -3483,7 +3480,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3500,11 +3497,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3516,7 +3513,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3549,14 +3546,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3566,7 +3563,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3582,7 +3579,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3599,14 +3596,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3615,7 +3612,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3636,7 +3633,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3648,14 +3645,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3669,7 +3666,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>34</v>
@@ -3681,14 +3678,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3698,11 +3695,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3714,14 +3711,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3731,11 +3728,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>79</v>
@@ -3747,14 +3744,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3764,11 +3761,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3780,7 +3777,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3801,7 +3798,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3813,7 +3810,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3830,11 +3827,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3846,7 +3843,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3863,11 +3860,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3879,7 +3876,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3896,11 +3893,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3912,7 +3909,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3929,11 +3926,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3945,7 +3942,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3966,7 +3963,7 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3978,7 +3975,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3995,11 +3992,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -4011,14 +4008,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4032,7 +4029,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>37</v>
@@ -4044,14 +4041,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4061,11 +4058,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4077,7 +4074,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4094,11 +4091,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4110,7 +4107,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4127,11 +4124,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>79</v>
@@ -4143,7 +4140,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4160,11 +4157,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4176,7 +4173,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4193,11 +4190,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>32</v>
@@ -4209,7 +4206,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4226,11 +4223,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4242,7 +4239,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4259,11 +4256,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>32</v>
@@ -4275,7 +4272,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4292,11 +4289,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>32</v>
@@ -4308,14 +4305,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>256</v>
+        <v>92</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4362,7 +4359,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4391,11 +4388,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4424,7 +4421,7 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4480,7 +4477,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4688,11 +4685,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>32</v>
@@ -4704,14 +4701,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4725,7 +4722,7 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4737,14 +4734,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4758,7 +4755,7 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4770,7 +4767,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4787,7 +4784,7 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
@@ -4803,7 +4800,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4820,11 +4817,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4836,14 +4833,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4869,14 +4866,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4886,11 +4883,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4902,7 +4899,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4923,7 +4920,7 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4935,14 +4932,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4952,11 +4949,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -4968,7 +4965,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4985,11 +4982,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -5001,7 +4998,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5022,10 +5019,10 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
+        <v>302</v>
+      </c>
+      <c t="s" r="Q110" s="12">
         <v>303</v>
-      </c>
-      <c t="s" r="Q110" s="12">
-        <v>304</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5034,7 +5031,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5051,11 +5048,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5067,7 +5064,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5084,11 +5081,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5100,14 +5097,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5117,11 +5114,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5133,7 +5130,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5154,7 +5151,7 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5166,14 +5163,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5199,14 +5196,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5216,11 +5213,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>21</v>
@@ -5228,13 +5225,13 @@
     </row>
     <row r="117" ht="25.5" customHeight="1">
       <c r="P117" s="13">
-        <v>10547.275</v>
+        <v>10572.275</v>
       </c>
       <c r="Q117" s="13"/>
     </row>
     <row r="118" ht="16.5" customHeight="1">
       <c t="s" r="A118" s="14">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -5242,13 +5239,13 @@
       <c r="E118" s="14"/>
       <c r="F118" s="14"/>
       <c t="s" r="G118" s="15">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H118" s="15"/>
       <c r="I118" s="15"/>
       <c r="J118" s="16"/>
       <c t="s" r="K118" s="17">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L118" s="17"/>
       <c r="M118" s="17"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -134,6 +134,15 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -179,6 +188,15 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>ATOREZA 40/10MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>210.0000</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -233,7 +251,7 @@
     <t>49.00</t>
   </si>
   <si>
-    <t>49.0000</t>
+    <t>98.0000</t>
   </si>
   <si>
     <t>CALMEPAM 3MG 20 TAB.</t>
@@ -275,6 +293,12 @@
     <t>22:0</t>
   </si>
   <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -284,6 +308,15 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -338,9 +371,6 @@
     <t>95.4000</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
@@ -380,6 +410,9 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
@@ -434,9 +467,6 @@
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
-    <t>72.0000</t>
-  </si>
-  <si>
     <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
   </si>
   <si>
@@ -455,6 +485,15 @@
     <t>85.8000</t>
   </si>
   <si>
+    <t>FUCIDIN 2% CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
@@ -575,6 +614,12 @@
     <t>7:2</t>
   </si>
   <si>
+    <t>MEGALASE 30 TAB</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>MEMEXA 10MG 30F.C. TAB.</t>
   </si>
   <si>
@@ -743,12 +788,18 @@
     <t>46.00</t>
   </si>
   <si>
-    <t>69.0000</t>
-  </si>
-  <si>
     <t>SUCAIR MOUTH SPRAY 60ML</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/850MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
@@ -758,6 +809,21 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>TENSOPLERON 25MG 30 F.C TAB</t>
+  </si>
+  <si>
+    <t>153.00</t>
+  </si>
+  <si>
+    <t>153.0000</t>
+  </si>
+  <si>
+    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
@@ -896,9 +962,6 @@
     <t>جولي ايفا كريم تشقير</t>
   </si>
   <si>
-    <t>70.0000</t>
-  </si>
-  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
@@ -932,6 +995,9 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>سويت كوكو</t>
+  </si>
+  <si>
     <t>شامبو الفيف 400 مل</t>
   </si>
   <si>
@@ -965,7 +1031,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 10:22 PM</t>
+    <t>Wednesday, 23 July, 2025 10:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1837,7 +1903,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1847,11 +1913,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>32</v>
@@ -1863,14 +1929,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1887,7 +1953,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1903,7 +1969,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1913,14 +1979,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1929,31 +1995,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1962,31 +2028,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1995,14 +2061,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2012,11 +2078,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -2028,14 +2094,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2052,7 +2118,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2068,7 +2134,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2101,7 +2167,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2118,7 +2184,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2134,7 +2200,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2167,7 +2233,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2184,7 +2250,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2200,7 +2266,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2210,14 +2276,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2226,14 +2292,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2243,14 +2309,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2259,14 +2325,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2276,14 +2342,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2299,7 +2365,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2309,14 +2375,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2325,14 +2391,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2342,11 +2408,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2358,14 +2424,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2375,14 +2441,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2391,14 +2457,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2408,11 +2474,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>32</v>
@@ -2424,14 +2490,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2441,14 +2507,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2457,14 +2523,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2474,14 +2540,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>109</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2490,14 +2556,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2507,14 +2573,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2523,14 +2589,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2540,11 +2606,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>32</v>
@@ -2556,7 +2622,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2573,11 +2639,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>32</v>
@@ -2589,14 +2655,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2613,7 +2679,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2629,7 +2695,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2639,11 +2705,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>32</v>
@@ -2655,14 +2721,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2672,11 +2738,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>32</v>
@@ -2688,14 +2754,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2705,14 +2771,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2721,14 +2787,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2738,14 +2804,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2754,28 +2820,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>32</v>
@@ -2787,14 +2853,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2804,14 +2870,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2820,14 +2886,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2837,11 +2903,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>32</v>
@@ -2853,28 +2919,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2886,14 +2952,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2903,14 +2969,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2919,28 +2985,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>32</v>
@@ -2976,7 +3042,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2992,7 +3058,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3009,7 +3075,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3025,24 +3091,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3051,14 +3117,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3068,11 +3134,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3084,14 +3150,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3101,11 +3167,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>32</v>
@@ -3117,14 +3183,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3134,14 +3200,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3150,14 +3216,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3167,14 +3233,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3183,14 +3249,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3200,14 +3266,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3216,14 +3282,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3233,14 +3299,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3249,7 +3315,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3266,11 +3332,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3282,7 +3348,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3299,14 +3365,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3315,14 +3381,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3332,14 +3398,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3348,14 +3414,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3365,14 +3431,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>182</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3381,14 +3447,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3398,11 +3464,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3414,14 +3480,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3431,14 +3497,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3447,14 +3513,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3464,14 +3530,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3480,7 +3546,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3497,11 +3563,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>49</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3513,14 +3579,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3530,14 +3596,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3546,14 +3612,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3563,14 +3629,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>49</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3579,14 +3645,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3596,14 +3662,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>201</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3612,14 +3678,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3629,14 +3695,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3645,14 +3711,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3662,14 +3728,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3678,14 +3744,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3695,14 +3761,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3711,14 +3777,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3728,14 +3794,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3744,14 +3810,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3761,14 +3827,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3777,14 +3843,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3794,11 +3860,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3810,14 +3876,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3827,14 +3893,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3843,14 +3909,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3860,11 +3926,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>64</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3876,31 +3942,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>39</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3909,14 +3975,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3926,11 +3992,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3942,14 +4008,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3959,14 +4025,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3975,28 +4041,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -4008,14 +4074,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4025,14 +4091,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4041,14 +4107,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>201</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4058,14 +4124,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4074,7 +4140,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4091,11 +4157,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>146</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4107,31 +4173,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4140,14 +4206,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4157,11 +4223,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4173,14 +4239,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4190,14 +4256,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>108</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4206,28 +4272,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4239,14 +4305,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4256,14 +4322,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>46</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4272,14 +4338,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4289,14 +4355,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4305,14 +4371,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4322,11 +4388,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>65</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4355,14 +4421,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>127</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4371,14 +4437,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>259</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4388,11 +4454,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4411,7 +4477,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4421,14 +4487,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4437,14 +4503,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4454,14 +4520,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4470,31 +4536,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>70</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4503,14 +4569,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4520,11 +4586,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>128</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4536,14 +4602,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4553,11 +4619,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>177</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4569,14 +4635,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4586,14 +4652,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>83</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4602,7 +4668,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4619,11 +4685,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>32</v>
@@ -4635,14 +4701,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4652,11 +4718,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>70</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4668,14 +4734,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4685,14 +4751,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4701,28 +4767,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>127</v>
+        <v>229</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4734,31 +4800,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>287</v>
+        <v>21</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>176</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4767,31 +4833,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>55</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4800,31 +4866,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>76</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>176</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4833,31 +4899,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>201</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>14</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4879,15 +4945,15 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>208</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>209</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4899,31 +4965,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>118</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4932,31 +4998,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>297</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>208</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>209</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4965,7 +5031,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4978,15 +5044,15 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -4998,31 +5064,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>272</v>
+        <v>207</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>302</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>303</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5031,28 +5097,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>307</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>305</v>
+        <v>138</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5064,28 +5130,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>309</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>308</v>
+        <v>49</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>309</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5104,24 +5170,24 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>311</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>208</v>
+        <v>311</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>302</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5137,24 +5203,24 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>127</v>
+        <v>311</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5170,13 +5236,13 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>314</v>
+        <v>216</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
@@ -5196,66 +5262,429 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>316</v>
+        <v>223</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>316</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>18</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>56</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>128</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
         <v>317</v>
       </c>
-      <c t="s" r="Q116" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>10572.275</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
         <v>318</v>
       </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>56</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>223</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
         <v>319</v>
       </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>18</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>56</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
         <v>320</v>
       </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>321</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>322</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>18</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>56</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>294</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>323</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>325</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>18</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>56</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>326</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>327</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>328</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>26</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>56</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>311</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>329</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>18</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>56</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>330</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>331</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>332</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>333</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>56</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>223</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>323</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>334</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>21</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>56</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>138</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>335</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>336</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>56</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>14</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>337</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>318</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>56</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>338</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>339</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>11520.965</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>340</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>341</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>342</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5814,10 +6243,65 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -431,6 +431,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>E-MOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -686,6 +695,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -824,6 +842,9 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
@@ -1031,7 +1052,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 10:34 PM</t>
+    <t>Wednesday, 23 July, 2025 10:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2959,7 +2980,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2969,14 +2990,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2985,31 +3006,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3025,13 +3046,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -3058,7 +3079,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3091,24 +3112,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3117,28 +3138,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3150,14 +3171,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3167,14 +3188,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3183,14 +3204,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3200,14 +3221,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3223,7 +3244,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3240,7 +3261,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3256,7 +3277,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3273,7 +3294,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3289,7 +3310,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3306,7 +3327,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3322,7 +3343,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3339,7 +3360,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3355,7 +3376,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3372,7 +3393,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3421,7 +3442,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3438,7 +3459,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3454,7 +3475,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3471,7 +3492,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3487,7 +3508,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3553,7 +3574,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3563,11 +3584,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>49</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3579,14 +3600,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3596,11 +3617,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3612,14 +3633,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3629,14 +3650,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3645,14 +3666,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3662,14 +3683,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>49</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q67" s="12">
         <v>198</v>
-      </c>
-      <c t="s" r="Q67" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3685,7 +3706,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3695,14 +3716,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>64</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>132</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3711,14 +3732,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3728,11 +3749,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>32</v>
@@ -3744,14 +3765,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3761,7 +3782,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>86</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3784,7 +3805,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3801,7 +3822,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3817,7 +3838,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3827,14 +3848,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3843,14 +3864,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>122</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3860,14 +3881,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>97</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3883,7 +3904,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3893,14 +3914,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>216</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3909,7 +3930,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3926,14 +3947,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>64</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3942,14 +3963,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3959,14 +3980,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3992,14 +4013,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>39</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4008,14 +4029,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4025,14 +4046,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4048,7 +4069,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4081,7 +4102,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4091,14 +4112,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4107,14 +4128,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>219</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4124,11 +4145,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4140,7 +4161,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4157,7 +4178,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -4180,13 +4201,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -4246,21 +4267,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>108</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4272,28 +4293,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4305,14 +4326,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4322,14 +4343,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4338,31 +4359,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4371,14 +4392,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4388,14 +4409,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4404,14 +4425,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>26</v>
+        <v>219</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4421,14 +4442,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4437,14 +4458,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4454,11 +4475,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>184</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4470,14 +4491,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4487,14 +4508,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4503,7 +4524,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4520,14 +4541,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>186</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4543,13 +4564,13 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4586,14 +4607,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>128</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4602,28 +4623,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>177</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4635,14 +4656,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4652,14 +4673,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>258</v>
+        <v>128</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4668,7 +4689,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4685,14 +4706,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>57</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4708,7 +4729,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4718,11 +4739,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4734,14 +4755,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4751,14 +4772,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>138</v>
+        <v>264</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>139</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4767,14 +4788,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>281</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4784,14 +4805,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4800,14 +4821,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4817,14 +4838,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4833,14 +4854,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4850,11 +4871,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>138</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4873,7 +4894,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>193</v>
+        <v>288</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4883,14 +4904,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4906,7 +4927,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4916,14 +4937,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>152</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4932,14 +4953,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>293</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4949,11 +4970,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4965,14 +4986,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4982,14 +5003,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>89</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4998,7 +5019,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5015,14 +5036,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5031,14 +5052,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5048,11 +5069,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -5064,14 +5085,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5081,14 +5102,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>207</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>105</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>32</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5104,24 +5125,24 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>307</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>138</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>139</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5130,28 +5151,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>309</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>49</v>
+        <v>310</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>189</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5163,31 +5184,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>311</v>
+        <v>210</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>89</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5196,14 +5217,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>18</v>
+        <v>314</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5213,14 +5234,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>311</v>
+        <v>138</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5229,14 +5250,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>216</v>
+        <v>316</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5246,14 +5267,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5262,14 +5283,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>315</v>
+        <v>18</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5279,14 +5300,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>223</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>224</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5295,7 +5316,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5312,14 +5333,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>128</v>
+        <v>318</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5328,14 +5349,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>318</v>
+        <v>219</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5345,14 +5366,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5361,14 +5382,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>18</v>
+        <v>322</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5378,11 +5399,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>320</v>
+        <v>226</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>321</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5394,7 +5415,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5411,14 +5432,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>294</v>
+        <v>128</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>324</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5427,14 +5448,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5444,11 +5465,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>21</v>
@@ -5460,14 +5481,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5477,11 +5498,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>15</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>21</v>
@@ -5510,14 +5531,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
+        <v>330</v>
+      </c>
+      <c t="s" r="Q123" s="12">
         <v>331</v>
-      </c>
-      <c t="s" r="Q123" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5533,7 +5554,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>333</v>
+        <v>18</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5543,14 +5564,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>223</v>
+        <v>333</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5559,14 +5580,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5576,11 +5597,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>138</v>
+        <v>318</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>21</v>
@@ -5592,14 +5613,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>336</v>
+        <v>18</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5609,14 +5630,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>14</v>
+        <v>337</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>15</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5625,14 +5646,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5642,49 +5663,148 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>338</v>
+        <v>226</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>11520.965</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>340</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
         <v>341</v>
       </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>21</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>56</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>138</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
         <v>342</v>
       </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>343</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>56</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>14</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>344</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>325</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>56</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>345</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>346</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>11781.965</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>347</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>348</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>349</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6298,10 +6418,25 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -1052,7 +1052,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 10:35 PM</t>
+    <t>Wednesday, 23 July, 2025 10:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -293,6 +293,21 @@
     <t>22:0</t>
   </si>
   <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>-22.7700</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>CONCOR AMLO 5/5 MG 30 TABS</t>
   </si>
   <si>
@@ -311,9 +326,6 @@
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>72.0000</t>
   </si>
   <si>
@@ -359,6 +371,12 @@
     <t>47.0250</t>
   </si>
   <si>
+    <t>DAVALINDI 10.000 I.U. 30 TABS.</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -497,9 +515,6 @@
     <t>FUCIDIN 2% CREAM 20 GM</t>
   </si>
   <si>
-    <t>69.00</t>
-  </si>
-  <si>
     <t>69.0000</t>
   </si>
   <si>
@@ -575,6 +590,15 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>HI-POTENCY FORMULA 30 TABS.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>INTEGROL 10MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -728,6 +752,15 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>PIOSETA SOFT HAIR CREAM</t>
+  </si>
+  <si>
+    <t>179.00</t>
+  </si>
+  <si>
+    <t>179.0000</t>
+  </si>
+  <si>
     <t>POLYFRESH 0.2% EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -755,6 +788,24 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>QUITAPEX 25MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>-28.7100</t>
+  </si>
+  <si>
+    <t>REALCOXSTAR 90MG 14TAB</t>
+  </si>
+  <si>
+    <t>133.00</t>
+  </si>
+  <si>
+    <t>-66.5000</t>
+  </si>
+  <si>
     <t>REVI 2 CREAM 50 GM</t>
   </si>
   <si>
@@ -770,6 +821,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>SIERA SCALP SOOTHING ANTI DANDRUFF SHAMPOO</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
     <t>SLY-IMPRESS SKIN MASSAGE GEL</t>
   </si>
   <si>
@@ -1022,9 +1082,6 @@
     <t>شامبو الفيف 400 مل</t>
   </si>
   <si>
-    <t>150.00</t>
-  </si>
-  <si>
     <t>150.0000</t>
   </si>
   <si>
@@ -1052,7 +1109,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 10:39 PM</t>
+    <t>Wednesday, 23 July, 2025 10:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2452,7 +2509,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2462,14 +2519,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2478,14 +2535,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2495,11 +2552,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>32</v>
@@ -2511,14 +2568,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2528,14 +2585,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2544,14 +2601,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2561,7 +2618,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2601,7 +2658,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2617,7 +2674,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2627,14 +2684,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2643,14 +2700,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2660,11 +2717,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>32</v>
@@ -2676,14 +2733,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2700,7 +2757,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2716,7 +2773,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2726,14 +2783,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2742,14 +2799,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2759,14 +2816,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>32</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2775,14 +2832,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2792,11 +2849,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>32</v>
@@ -2815,7 +2872,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2825,11 +2882,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>32</v>
@@ -2841,14 +2898,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2858,11 +2915,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>32</v>
@@ -2881,7 +2938,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2891,14 +2948,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2907,14 +2964,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2924,11 +2981,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>32</v>
@@ -2940,7 +2997,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2957,11 +3014,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2980,7 +3037,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2997,7 +3054,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3013,7 +3070,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3023,14 +3080,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3039,31 +3096,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3072,14 +3129,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3089,14 +3146,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3112,13 +3169,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3145,24 +3202,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3171,14 +3228,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3188,14 +3245,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3204,31 +3261,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3237,14 +3294,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3254,14 +3311,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3270,14 +3327,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3287,14 +3344,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3310,7 +3367,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3327,7 +3384,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3343,7 +3400,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3353,14 +3410,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3369,7 +3426,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3386,14 +3443,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3402,14 +3459,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3419,11 +3476,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>32</v>
@@ -3435,14 +3492,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3452,14 +3509,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3468,14 +3525,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3485,14 +3542,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3501,7 +3558,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3518,14 +3575,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3534,14 +3591,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3551,14 +3608,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3567,14 +3624,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3584,11 +3641,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3600,14 +3657,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3617,7 +3674,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>49</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3640,7 +3697,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3650,14 +3707,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3666,14 +3723,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3683,14 +3740,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>198</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3706,7 +3763,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3716,11 +3773,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>49</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3732,14 +3789,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3749,14 +3806,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3765,14 +3822,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3782,14 +3839,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>32</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3798,14 +3855,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3815,14 +3872,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3831,14 +3888,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3848,14 +3905,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>64</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3871,7 +3928,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3881,11 +3938,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>32</v>
@@ -3897,14 +3954,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>37</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3918,10 +3975,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3930,7 +3987,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3947,14 +4004,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>219</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3970,7 +4027,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3980,14 +4037,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>197</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4013,14 +4070,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>39</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4036,7 +4093,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4046,14 +4103,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q78" s="12">
         <v>227</v>
-      </c>
-      <c t="s" r="Q78" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4079,11 +4136,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>64</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -4095,14 +4152,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4112,14 +4169,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>183</v>
+        <v>39</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4128,14 +4185,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4145,11 +4202,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4161,14 +4218,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4178,7 +4235,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -4201,7 +4258,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4211,14 +4268,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4234,7 +4291,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4267,21 +4324,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4293,7 +4350,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4306,15 +4363,15 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4326,14 +4383,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4343,7 +4400,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>108</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4366,13 +4423,13 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4399,24 +4456,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>46</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4425,14 +4482,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4442,14 +4499,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4458,31 +4515,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>159</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4491,14 +4548,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4508,14 +4565,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>163</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4524,14 +4581,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4541,11 +4598,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4557,14 +4614,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4574,11 +4631,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4590,31 +4647,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4623,31 +4680,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>46</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4656,14 +4713,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4673,14 +4730,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>128</v>
+        <v>279</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4689,7 +4746,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4706,11 +4763,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>58</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4722,14 +4779,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4739,14 +4796,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>180</v>
+        <v>284</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4755,14 +4812,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4772,14 +4829,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>264</v>
+        <v>191</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4788,14 +4845,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4805,14 +4862,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4821,14 +4878,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4838,14 +4895,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>70</v>
+        <v>290</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>71</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4854,28 +4911,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>138</v>
+        <v>293</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>139</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4887,14 +4944,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4904,11 +4961,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>235</v>
+        <v>134</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4920,14 +4977,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4937,14 +4994,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4953,14 +5010,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4970,11 +5027,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>292</v>
+        <v>185</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4986,14 +5043,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5003,14 +5060,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>76</v>
+        <v>284</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5019,7 +5076,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5036,14 +5093,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5052,14 +5109,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>300</v>
+        <v>107</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5069,11 +5126,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>70</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -5085,14 +5142,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5102,14 +5159,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>144</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>89</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5118,14 +5175,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>308</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5135,14 +5192,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>243</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5158,7 +5215,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5168,14 +5225,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>310</v>
+        <v>158</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5184,14 +5241,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5201,14 +5258,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>210</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>105</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5217,31 +5274,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>314</v>
+        <v>204</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>139</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5250,28 +5307,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>316</v>
+        <v>18</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>49</v>
+        <v>317</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>192</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5283,31 +5340,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>18</v>
+        <v>320</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>58</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>89</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5316,31 +5373,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>192</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5349,31 +5406,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>14</v>
+        <v>327</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>15</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5382,28 +5439,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>322</v>
+        <v>18</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>226</v>
+        <v>330</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>227</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5415,31 +5472,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>276</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5448,14 +5505,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5465,11 +5522,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>226</v>
+        <v>144</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>227</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>21</v>
@@ -5481,14 +5538,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>18</v>
+        <v>336</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5498,11 +5555,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>327</v>
+        <v>49</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>328</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>21</v>
@@ -5514,7 +5571,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5531,14 +5588,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>330</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>331</v>
+        <v>89</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5547,7 +5604,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5564,14 +5621,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>334</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5580,14 +5637,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>26</v>
+        <v>227</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5597,14 +5654,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>318</v>
+        <v>14</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
         <v>15</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5613,14 +5670,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>18</v>
+        <v>342</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5630,11 +5687,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>337</v>
+        <v>234</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>338</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>21</v>
@@ -5646,14 +5703,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>340</v>
+        <v>18</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5663,14 +5720,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5679,14 +5736,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>21</v>
+        <v>345</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5696,11 +5753,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>139</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>21</v>
@@ -5712,14 +5769,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>343</v>
+        <v>18</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5729,14 +5786,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>14</v>
+        <v>347</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>15</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5745,14 +5802,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>325</v>
+        <v>18</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5762,49 +5819,280 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>21</v>
+        <v>351</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>11781.965</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>347</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
-        <v>348</v>
-      </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
-        <v>349</v>
-      </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>352</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>18</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>56</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>353</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>354</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>355</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>26</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>56</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>338</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>356</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>18</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>56</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>194</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>357</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>358</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>359</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>56</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>234</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>350</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>360</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>21</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>56</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>144</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>361</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>362</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>56</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>14</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>363</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>345</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>56</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>364</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>365</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="P138" s="13">
+        <v>12135.485000000001</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
+        <v>366</v>
+      </c>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
+        <v>367</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
+        <v>368</v>
+      </c>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6433,10 +6721,45 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALBENDAZOLE 400MG 6 TABS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>ALKAPRESS 5MG 20 TAB.</t>
   </si>
   <si>
@@ -644,7 +653,10 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>7:2</t>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>31.6800</t>
   </si>
   <si>
     <t>MEGALASE 30 TAB</t>
@@ -788,6 +800,15 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">PRETOPRAZAN  20MG  14CAPS</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>QUITAPEX 25MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -863,9 +884,6 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
-    <t>46.00</t>
-  </si>
-  <si>
     <t>SUCAIR MOUTH SPRAY 60ML</t>
   </si>
   <si>
@@ -899,9 +917,6 @@
     <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
   </si>
   <si>
-    <t>70.0000</t>
-  </si>
-  <si>
     <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
   </si>
   <si>
@@ -1109,7 +1124,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 10:49 PM</t>
+    <t>Wednesday, 23 July, 2025 11:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1849,7 +1864,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1859,11 +1874,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>21</v>
@@ -1875,14 +1890,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1899,7 +1914,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1908,14 +1923,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1925,14 +1940,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1941,14 +1956,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1958,14 +1973,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>40</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1981,7 +1996,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1998,7 +2013,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -2014,7 +2029,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2024,14 +2039,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2040,14 +2055,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2064,7 +2079,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2080,7 +2095,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2090,14 +2105,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2106,31 +2121,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2139,7 +2154,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -2152,7 +2167,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -2179,7 +2194,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2189,14 +2204,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2205,14 +2220,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2229,7 +2244,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2245,7 +2260,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2278,7 +2293,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2311,7 +2326,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2328,7 +2343,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2361,7 +2376,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2377,7 +2392,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2394,7 +2409,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2410,7 +2425,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2420,14 +2435,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2436,14 +2451,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2453,14 +2468,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2469,14 +2484,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2486,14 +2501,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2502,14 +2517,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2519,14 +2534,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2535,14 +2550,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2552,14 +2567,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2568,14 +2583,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2585,14 +2600,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2608,7 +2623,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2618,14 +2633,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2634,14 +2649,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2651,11 +2666,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2667,14 +2682,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2684,14 +2699,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2700,14 +2715,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2724,7 +2739,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2740,7 +2755,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2757,7 +2772,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2773,7 +2788,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2783,14 +2798,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2799,14 +2814,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2816,14 +2831,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2832,14 +2847,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2849,14 +2864,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2865,14 +2880,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2882,14 +2897,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2898,14 +2913,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2919,10 +2934,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2931,14 +2946,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2948,14 +2963,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2971,7 +2986,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2981,14 +2996,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3004,7 +3019,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3014,14 +3029,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3030,14 +3045,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3047,14 +3062,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3070,7 +3085,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3087,7 +3102,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3103,7 +3118,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3136,7 +3151,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3146,14 +3161,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3162,31 +3177,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3202,13 +3217,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3219,7 +3234,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3235,7 +3250,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3252,7 +3267,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3268,24 +3283,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3294,28 +3309,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3327,14 +3342,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3344,14 +3359,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3360,14 +3375,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3377,14 +3392,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3400,7 +3415,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3410,14 +3425,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3426,14 +3441,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3443,14 +3458,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3466,7 +3481,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3483,7 +3498,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3499,7 +3514,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3516,7 +3531,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3532,7 +3547,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3549,7 +3564,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3582,7 +3597,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3598,7 +3613,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3615,7 +3630,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3631,7 +3646,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3648,7 +3663,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3664,7 +3679,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3697,7 +3712,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3714,7 +3729,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3730,7 +3745,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3747,7 +3762,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3763,7 +3778,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3773,11 +3788,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>49</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3789,14 +3804,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3806,11 +3821,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3822,14 +3837,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3839,14 +3854,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>206</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3855,14 +3870,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3872,14 +3887,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q71" s="12">
         <v>209</v>
-      </c>
-      <c t="s" r="Q71" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3895,7 +3910,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3905,14 +3920,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>64</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3921,14 +3936,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3938,14 +3953,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3954,14 +3969,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3971,14 +3986,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3987,14 +4002,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4004,14 +4019,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4020,14 +4035,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4037,14 +4052,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>102</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4053,14 +4068,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4070,14 +4085,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>105</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4086,14 +4101,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4103,14 +4118,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>227</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4136,14 +4151,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>64</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4152,14 +4167,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4169,14 +4184,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4185,14 +4200,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4202,14 +4217,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>42</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4225,7 +4240,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4235,11 +4250,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4251,14 +4266,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4268,14 +4283,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>188</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4284,14 +4299,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4301,14 +4316,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4317,14 +4332,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4334,11 +4349,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4350,7 +4365,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4363,15 +4378,15 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4383,28 +4398,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4416,14 +4431,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4433,11 +4448,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4449,28 +4464,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4482,31 +4497,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4515,31 +4530,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>98</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4548,14 +4563,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4565,14 +4580,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4581,31 +4596,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>112</v>
+        <v>270</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4614,7 +4629,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4631,11 +4646,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4647,28 +4662,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>274</v>
+        <v>115</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4680,14 +4695,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4697,14 +4712,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>46</v>
+        <v>278</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4713,31 +4728,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4746,14 +4761,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4763,14 +4778,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4779,14 +4794,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>26</v>
+        <v>231</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4796,14 +4811,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>168</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4812,14 +4827,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4829,11 +4844,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>192</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4845,14 +4860,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4862,14 +4877,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>23</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4878,7 +4893,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4895,14 +4910,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>290</v>
+        <v>194</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4918,13 +4933,13 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4961,14 +4976,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>134</v>
+        <v>296</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4977,7 +4992,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4990,15 +5005,15 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>57</v>
+        <v>299</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>58</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -5010,14 +5025,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5027,11 +5042,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -5043,14 +5058,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5060,14 +5075,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>284</v>
+        <v>60</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5076,14 +5091,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5093,14 +5108,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>303</v>
+        <v>188</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
         <v>304</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5116,7 +5131,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5126,14 +5141,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>71</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5142,14 +5157,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5159,14 +5174,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>144</v>
+        <v>308</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>145</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5175,14 +5190,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>308</v>
+        <v>110</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5192,11 +5207,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>243</v>
+        <v>73</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>244</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5208,14 +5223,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5225,14 +5240,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>310</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5241,14 +5256,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>313</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5258,11 +5273,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>312</v>
+        <v>247</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>313</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5281,7 +5296,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5291,14 +5306,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
         <v>315</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5314,7 +5329,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5347,7 +5362,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>320</v>
+        <v>207</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5357,14 +5372,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5373,14 +5388,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5390,14 +5405,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>89</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5406,14 +5421,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5423,14 +5438,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5439,14 +5454,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5456,14 +5471,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5472,14 +5487,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5489,14 +5504,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>218</v>
+        <v>332</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>109</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5505,28 +5520,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>334</v>
+        <v>18</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>144</v>
+        <v>335</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>145</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>21</v>
@@ -5538,31 +5553,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>336</v>
+        <v>35</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>49</v>
+        <v>222</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5571,31 +5586,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>18</v>
+        <v>339</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>338</v>
+        <v>147</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>89</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5604,31 +5619,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>18</v>
+        <v>341</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>338</v>
+        <v>52</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5637,31 +5652,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5670,31 +5685,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>342</v>
+        <v>18</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>234</v>
+        <v>343</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5703,31 +5718,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>296</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5736,28 +5751,28 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>21</v>
@@ -5769,7 +5784,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5782,15 +5797,15 @@
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>347</v>
+        <v>137</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>348</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>21</v>
@@ -5809,24 +5824,24 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>18</v>
+        <v>350</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>321</v>
+        <v>238</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>350</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>351</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5835,7 +5850,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5848,15 +5863,15 @@
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>21</v>
@@ -5868,31 +5883,31 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>15</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>21</v>
+        <v>356</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5901,7 +5916,7 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -5914,15 +5929,15 @@
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>194</v>
+        <v>358</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>21</v>
@@ -5934,31 +5949,31 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>359</v>
+        <v>29</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>234</v>
+        <v>343</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>350</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5967,28 +5982,28 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>145</v>
+        <v>362</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>21</v>
@@ -6000,28 +6015,28 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>15</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6033,66 +6048,132 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>364</v>
+        <v>147</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>365</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
-      <c r="P138" s="13">
-        <v>12135.485000000001</v>
-      </c>
-      <c r="Q138" s="13"/>
-    </row>
-    <row r="139" ht="16.5" customHeight="1">
-      <c t="s" r="A139" s="14">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
         <v>366</v>
       </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c t="s" r="G139" s="15">
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
         <v>367</v>
       </c>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="16"/>
-      <c t="s" r="K139" s="17">
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>59</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>14</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
         <v>368</v>
       </c>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
-      <c r="Q139" s="17"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>350</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>59</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>369</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>370</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="P140" s="13">
+        <v>12267.325000000001</v>
+      </c>
+      <c r="Q140" s="13"/>
+    </row>
+    <row r="141" ht="16.5" customHeight="1">
+      <c t="s" r="A141" s="14">
+        <v>371</v>
+      </c>
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c t="s" r="G141" s="15">
+        <v>372</v>
+      </c>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="16"/>
+      <c t="s" r="K141" s="17">
+        <v>373</v>
+      </c>
+      <c r="L141" s="17"/>
+      <c r="M141" s="17"/>
+      <c r="N141" s="17"/>
+      <c r="O141" s="17"/>
+      <c r="P141" s="17"/>
+      <c r="Q141" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="667">
+  <mergeCells count="677">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6756,10 +6837,20 @@
     <mergeCell ref="H137:K137"/>
     <mergeCell ref="L137:M137"/>
     <mergeCell ref="N137:O137"/>
-    <mergeCell ref="P138:Q138"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="G139:I139"/>
-    <mergeCell ref="K139:Q139"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="P140:Q140"/>
+    <mergeCell ref="A141:F141"/>
+    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="K141:Q141"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -173,6 +173,15 @@
     <t>39.6000</t>
   </si>
   <si>
+    <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
   </si>
   <si>
@@ -206,6 +215,18 @@
     <t>210.0000</t>
   </si>
   <si>
+    <t>ATROVENT 500MCG/2ML 20 UNIT DOSE VIALS</t>
+  </si>
+  <si>
+    <t>1:18</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>28.6000</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -317,6 +338,15 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>CONCOR AMLO 5/5 MG 30 TABS</t>
   </si>
   <si>
@@ -383,9 +413,6 @@
     <t>DAVALINDI 10.000 I.U. 30 TABS.</t>
   </si>
   <si>
-    <t>78.0000</t>
-  </si>
-  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -491,6 +518,15 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
     <t>E-YEAST 20 CAPS</t>
   </si>
   <si>
@@ -683,6 +719,15 @@
     <t>100.0000</t>
   </si>
   <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>MILGA 40 TABLETS</t>
   </si>
   <si>
@@ -776,9 +821,6 @@
     <t>POLYFRESH 0.2% EYE DROPS 10 ML</t>
   </si>
   <si>
-    <t>63.00</t>
-  </si>
-  <si>
     <t>63.0000</t>
   </si>
   <si>
@@ -929,9 +971,6 @@
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>TRITTICO 100MG 20 TAB.</t>
   </si>
   <si>
@@ -1088,7 +1127,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>سويت كوكو</t>
@@ -1109,6 +1148,9 @@
     <t xml:space="preserve">فرش كعب </t>
   </si>
   <si>
+    <t>ماسك جلسات اطفال</t>
+  </si>
+  <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
@@ -1124,7 +1166,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 11:03 PM</t>
+    <t>Wednesday, 23 July, 2025 11:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2128,7 +2170,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2138,11 +2180,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>35</v>
@@ -2154,31 +2196,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2187,7 +2229,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -2200,7 +2242,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -2227,7 +2269,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2237,14 +2279,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2253,14 +2295,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2277,7 +2319,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2293,7 +2335,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2303,14 +2345,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2319,14 +2361,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2336,11 +2378,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -2352,14 +2394,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2369,14 +2411,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2385,14 +2427,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2402,14 +2444,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2418,14 +2460,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2435,14 +2477,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2451,14 +2493,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2475,7 +2517,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2491,7 +2533,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2501,14 +2543,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2517,14 +2559,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2534,14 +2576,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2550,14 +2592,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2567,14 +2609,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>101</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2590,7 +2632,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2600,14 +2642,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2623,7 +2665,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2633,14 +2675,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>35</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2649,14 +2691,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2666,14 +2708,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2682,14 +2724,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2699,14 +2741,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2715,14 +2757,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2739,7 +2781,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2755,7 +2797,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2765,14 +2807,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2781,14 +2823,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2805,7 +2847,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2821,7 +2863,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2831,14 +2873,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2847,14 +2889,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2864,14 +2906,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>98</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2880,14 +2922,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2897,11 +2939,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>35</v>
@@ -2913,14 +2955,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2930,14 +2972,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2953,7 +2995,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2963,14 +3005,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>35</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2979,14 +3021,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2996,11 +3038,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>35</v>
@@ -3029,11 +3071,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>35</v>
@@ -3045,14 +3087,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3062,14 +3104,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3078,14 +3120,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3095,11 +3137,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>35</v>
@@ -3111,14 +3153,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3128,14 +3170,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3144,14 +3186,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3161,11 +3203,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3184,7 +3226,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3194,14 +3236,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3210,31 +3252,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3243,14 +3285,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3260,14 +3302,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3276,14 +3318,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3293,14 +3335,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3316,24 +3358,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3342,14 +3384,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3359,14 +3401,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3375,14 +3417,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3392,11 +3434,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>35</v>
@@ -3408,14 +3450,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3425,14 +3467,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3441,28 +3483,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3474,14 +3516,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3491,14 +3533,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3507,14 +3549,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3524,11 +3566,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>35</v>
@@ -3540,14 +3582,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3557,14 +3599,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3573,7 +3615,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3590,14 +3632,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3613,7 +3655,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3630,7 +3672,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3646,7 +3688,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3663,7 +3705,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3679,7 +3721,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3712,7 +3754,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3729,7 +3771,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3745,7 +3787,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3778,7 +3820,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3795,7 +3837,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3821,11 +3863,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3837,14 +3879,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3854,11 +3896,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3870,14 +3912,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3887,14 +3929,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>52</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>209</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3903,7 +3945,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3920,11 +3962,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3936,14 +3978,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3953,14 +3995,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3976,7 +4018,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3986,14 +4028,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4009,7 +4051,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4019,14 +4061,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>52</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>35</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4035,14 +4077,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4052,11 +4094,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -4068,14 +4110,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>131</v>
+        <v>226</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4085,14 +4127,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4101,14 +4143,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4118,14 +4160,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>96</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>116</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4134,14 +4176,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4151,14 +4193,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>231</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4167,7 +4209,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4184,11 +4226,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4200,14 +4242,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4217,14 +4259,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4233,14 +4275,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>140</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4250,14 +4292,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>115</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4273,7 +4315,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4283,11 +4325,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4306,7 +4348,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>244</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4316,14 +4358,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>88</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4332,14 +4374,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>231</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4349,11 +4391,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4365,14 +4407,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>249</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4382,14 +4424,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4405,21 +4447,21 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4431,14 +4473,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4448,11 +4490,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4464,14 +4506,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>259</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4481,14 +4523,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4497,28 +4539,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4530,31 +4572,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>86</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4570,13 +4612,13 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4587,7 +4629,7 @@
         <v>268</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4603,24 +4645,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4629,7 +4671,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4646,11 +4688,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4662,24 +4704,24 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>115</v>
+        <v>275</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4702,13 +4744,13 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4719,7 +4761,7 @@
         <v>279</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4741,7 +4783,7 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4752,7 +4794,7 @@
         <v>282</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4768,24 +4810,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>49</v>
+        <v>284</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>40</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4794,14 +4836,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4811,14 +4853,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4827,7 +4869,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4844,11 +4886,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4860,14 +4902,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4877,14 +4919,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>23</v>
+        <v>292</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>171</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4893,28 +4935,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>194</v>
+        <v>295</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>195</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4926,14 +4968,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4943,14 +4985,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>293</v>
+        <v>49</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4959,14 +5001,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4976,14 +5018,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4992,7 +5034,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -5005,15 +5047,15 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>299</v>
+        <v>180</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -5025,14 +5067,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5042,14 +5084,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>265</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5058,14 +5100,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5075,11 +5117,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -5091,7 +5133,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5108,11 +5150,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>188</v>
+        <v>307</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -5124,14 +5166,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5141,11 +5183,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>23</v>
+        <v>310</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>35</v>
@@ -5157,7 +5199,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5170,18 +5212,18 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5190,14 +5232,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5207,11 +5249,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>74</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5223,14 +5265,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5240,11 +5282,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5256,14 +5298,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>313</v>
+        <v>40</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5273,11 +5315,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>248</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5289,14 +5331,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5306,11 +5348,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>315</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>35</v>
@@ -5322,14 +5364,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5339,14 +5381,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5355,14 +5397,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>207</v>
+        <v>120</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5372,14 +5414,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>320</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5388,14 +5430,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5405,11 +5447,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>322</v>
+        <v>156</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>323</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5421,14 +5463,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5438,11 +5480,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>326</v>
+        <v>262</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>327</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>21</v>
@@ -5454,14 +5496,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5471,14 +5513,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>329</v>
+        <v>173</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>92</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5487,14 +5529,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5504,14 +5546,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5520,14 +5562,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>18</v>
+        <v>219</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5537,14 +5579,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>335</v>
+        <v>86</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5553,14 +5595,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5570,14 +5612,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>222</v>
+        <v>335</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>112</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5586,28 +5628,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>147</v>
+        <v>339</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>148</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>21</v>
@@ -5619,31 +5661,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>341</v>
+        <v>99</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>52</v>
+        <v>342</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>203</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5652,7 +5694,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5665,18 +5707,18 @@
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>92</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5685,7 +5727,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5698,18 +5740,18 @@
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>203</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5718,31 +5760,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>231</v>
+        <v>35</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5751,28 +5793,28 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>238</v>
+        <v>156</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>239</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>21</v>
@@ -5784,28 +5826,28 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>18</v>
+        <v>354</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>21</v>
@@ -5817,31 +5859,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>350</v>
+        <v>18</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>238</v>
+        <v>356</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>239</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5850,7 +5892,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5863,18 +5905,18 @@
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>353</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5883,31 +5925,31 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>326</v>
+        <v>14</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>355</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>356</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5916,28 +5958,28 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>18</v>
+        <v>360</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>358</v>
+        <v>253</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>359</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>21</v>
@@ -5949,28 +5991,28 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>343</v>
+        <v>146</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>15</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>21</v>
@@ -5982,28 +6024,28 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>18</v>
+        <v>363</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>362</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>21</v>
@@ -6015,31 +6057,31 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>364</v>
+        <v>18</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>238</v>
+        <v>365</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6048,31 +6090,31 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>147</v>
+        <v>339</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>148</v>
+        <v>368</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>21</v>
+        <v>369</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6081,28 +6123,28 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>367</v>
+        <v>18</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c t="s" r="L138" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>14</v>
+        <v>371</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>15</v>
+        <v>372</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>16</v>
@@ -6114,66 +6156,264 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>350</v>
+        <v>29</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c t="s" r="L139" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>370</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
-      <c r="P140" s="13">
-        <v>12267.325000000001</v>
-      </c>
-      <c r="Q140" s="13"/>
-    </row>
-    <row r="141" ht="16.5" customHeight="1">
-      <c t="s" r="A141" s="14">
-        <v>371</v>
-      </c>
-      <c r="B141" s="14"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c t="s" r="G141" s="15">
-        <v>372</v>
-      </c>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
-      <c r="J141" s="16"/>
-      <c t="s" r="K141" s="17">
-        <v>373</v>
-      </c>
-      <c r="L141" s="17"/>
-      <c r="M141" s="17"/>
-      <c r="N141" s="17"/>
-      <c r="O141" s="17"/>
-      <c r="P141" s="17"/>
-      <c r="Q141" s="17"/>
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>374</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>18</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>62</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>209</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>375</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>376</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>377</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>62</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>253</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
+        <v>368</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
+        <v>378</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>21</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>62</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
+        <v>156</v>
+      </c>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q142" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="A143" s="7">
+        <v>137</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c t="s" r="C143" s="8">
+        <v>379</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
+        <v>18</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c t="s" r="L143" s="10">
+        <v>62</v>
+      </c>
+      <c r="M143" s="10"/>
+      <c t="s" r="N143" s="8">
+        <v>253</v>
+      </c>
+      <c r="O143" s="8"/>
+      <c t="s" r="P143" s="11">
+        <v>254</v>
+      </c>
+      <c t="s" r="Q143" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="A144" s="7">
+        <v>138</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c t="s" r="C144" s="8">
+        <v>380</v>
+      </c>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c t="s" r="H144" s="9">
+        <v>381</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c t="s" r="L144" s="10">
+        <v>62</v>
+      </c>
+      <c r="M144" s="10"/>
+      <c t="s" r="N144" s="8">
+        <v>14</v>
+      </c>
+      <c r="O144" s="8"/>
+      <c t="s" r="P144" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q144" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="A145" s="7">
+        <v>139</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c t="s" r="C145" s="8">
+        <v>382</v>
+      </c>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c t="s" r="H145" s="9">
+        <v>363</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c t="s" r="L145" s="10">
+        <v>62</v>
+      </c>
+      <c r="M145" s="10"/>
+      <c t="s" r="N145" s="8">
+        <v>383</v>
+      </c>
+      <c r="O145" s="8"/>
+      <c t="s" r="P145" s="11">
+        <v>384</v>
+      </c>
+      <c t="s" r="Q145" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="P146" s="13">
+        <v>12521.715</v>
+      </c>
+      <c r="Q146" s="13"/>
+    </row>
+    <row r="147" ht="16.5" customHeight="1">
+      <c t="s" r="A147" s="14">
+        <v>385</v>
+      </c>
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
+      <c t="s" r="G147" s="15">
+        <v>386</v>
+      </c>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="16"/>
+      <c t="s" r="K147" s="17">
+        <v>387</v>
+      </c>
+      <c r="L147" s="17"/>
+      <c r="M147" s="17"/>
+      <c r="N147" s="17"/>
+      <c r="O147" s="17"/>
+      <c r="P147" s="17"/>
+      <c r="Q147" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="677">
+  <mergeCells count="707">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6847,10 +7087,40 @@
     <mergeCell ref="H139:K139"/>
     <mergeCell ref="L139:M139"/>
     <mergeCell ref="N139:O139"/>
-    <mergeCell ref="P140:Q140"/>
-    <mergeCell ref="A141:F141"/>
-    <mergeCell ref="G141:I141"/>
-    <mergeCell ref="K141:Q141"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="N145:O145"/>
+    <mergeCell ref="P146:Q146"/>
+    <mergeCell ref="A147:F147"/>
+    <mergeCell ref="G147:I147"/>
+    <mergeCell ref="K147:Q147"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -227,6 +227,12 @@
     <t>28.6000</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -1166,7 +1172,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 11:06 PM</t>
+    <t>Wednesday, 23 July, 2025 11:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2335,7 +2341,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2345,11 +2351,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>35</v>
@@ -2361,14 +2367,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2378,14 +2384,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2394,14 +2400,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2411,11 +2417,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -2427,14 +2433,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2444,11 +2450,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2460,14 +2466,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2477,14 +2483,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2493,7 +2499,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2510,14 +2516,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2526,14 +2532,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2543,14 +2549,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2559,14 +2565,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2576,14 +2582,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2592,14 +2598,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2609,14 +2615,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2625,14 +2631,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2642,14 +2648,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2675,14 +2681,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>108</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2691,14 +2697,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2708,14 +2714,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>35</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2724,14 +2730,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2741,7 +2747,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2764,7 +2770,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2774,11 +2780,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>35</v>
@@ -2790,14 +2796,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2807,14 +2813,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2830,7 +2836,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2840,11 +2846,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2856,14 +2862,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2873,14 +2879,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2889,14 +2895,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2906,14 +2912,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2922,14 +2928,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2939,11 +2945,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>35</v>
@@ -2955,14 +2961,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2972,14 +2978,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2988,14 +2994,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -3005,14 +3011,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>105</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3021,14 +3027,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3038,14 +3044,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>35</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3054,14 +3060,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3071,11 +3077,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>35</v>
@@ -3087,14 +3093,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3104,11 +3110,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>35</v>
@@ -3127,7 +3133,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3141,7 +3147,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>35</v>
@@ -3153,14 +3159,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3170,11 +3176,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>35</v>
@@ -3186,14 +3192,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3203,14 +3209,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3219,14 +3225,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3236,14 +3242,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3252,14 +3258,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3269,14 +3275,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3285,14 +3291,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3302,11 +3308,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3318,14 +3324,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3335,14 +3341,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3358,24 +3364,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3384,28 +3390,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>35</v>
@@ -3417,14 +3423,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3434,11 +3440,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>35</v>
@@ -3450,14 +3456,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3467,11 +3473,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>35</v>
@@ -3483,31 +3489,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3516,28 +3522,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3549,14 +3555,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3566,14 +3572,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>94</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3589,7 +3595,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3603,10 +3609,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3615,14 +3621,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3632,14 +3638,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3655,7 +3661,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3665,14 +3671,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3681,14 +3687,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3698,14 +3704,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3714,14 +3720,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3731,14 +3737,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3747,14 +3753,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3764,14 +3770,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3780,7 +3786,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3797,11 +3803,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>35</v>
@@ -3813,14 +3819,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3830,14 +3836,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3846,14 +3852,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3863,14 +3869,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3879,14 +3885,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3896,11 +3902,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3912,14 +3918,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3929,14 +3935,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3945,14 +3951,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3962,14 +3968,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3978,14 +3984,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3995,7 +4001,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>52</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -4018,7 +4024,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4028,7 +4034,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -4051,7 +4057,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4061,14 +4067,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>221</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4077,14 +4083,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4094,14 +4100,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>52</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4110,14 +4116,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>226</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4127,14 +4133,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4143,14 +4149,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4160,14 +4166,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4183,7 +4189,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4193,11 +4199,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>98</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>35</v>
@@ -4209,14 +4215,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4226,14 +4232,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4242,14 +4248,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4259,11 +4265,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4275,14 +4281,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4292,14 +4298,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>115</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>84</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4308,14 +4314,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4325,14 +4331,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>117</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4341,14 +4347,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4362,10 +4368,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>246</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4374,7 +4380,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4391,14 +4397,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4407,14 +4413,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4424,14 +4430,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4440,14 +4446,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4457,14 +4463,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>42</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4473,14 +4479,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>254</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4490,11 +4496,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4506,14 +4512,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>259</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4523,14 +4529,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>203</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4539,14 +4545,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4556,14 +4562,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>205</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4572,14 +4578,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>248</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4589,7 +4595,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4618,15 +4624,15 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>267</v>
+        <v>88</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4638,24 +4644,24 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>110</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4678,7 +4684,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4688,11 +4694,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>112</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4704,28 +4710,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4737,14 +4743,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4754,14 +4760,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4770,31 +4776,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>108</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4803,31 +4809,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4836,31 +4842,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4869,7 +4875,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4886,7 +4892,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>125</v>
+        <v>289</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4919,11 +4925,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>292</v>
+        <v>127</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4935,28 +4941,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4968,31 +4974,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>49</v>
+        <v>297</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>298</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -5008,7 +5014,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5018,14 +5024,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>300</v>
+        <v>49</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5034,14 +5040,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>248</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5051,14 +5057,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>180</v>
+        <v>302</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>303</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5074,7 +5080,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5084,14 +5090,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>183</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5100,14 +5106,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5117,14 +5123,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>206</v>
+        <v>23</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5133,14 +5139,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5150,11 +5156,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>307</v>
+        <v>208</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -5166,14 +5172,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5183,14 +5189,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5199,31 +5205,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5232,28 +5238,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>146</v>
+        <v>315</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5265,14 +5271,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5282,11 +5288,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>64</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5298,14 +5304,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5315,11 +5321,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>318</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5338,7 +5344,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5348,14 +5354,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>238</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5364,14 +5370,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5381,11 +5387,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>321</v>
+        <v>23</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>322</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>35</v>
@@ -5397,14 +5403,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5414,14 +5420,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>80</v>
+        <v>323</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>81</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5430,14 +5436,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5447,11 +5453,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5463,14 +5469,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>326</v>
+        <v>29</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5480,11 +5486,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>262</v>
+        <v>158</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>263</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>21</v>
@@ -5503,7 +5509,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>21</v>
+        <v>328</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5513,14 +5519,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>173</v>
+        <v>264</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>328</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5536,7 +5542,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5546,14 +5552,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>330</v>
+        <v>175</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5562,14 +5568,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5579,14 +5585,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>86</v>
+        <v>332</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
         <v>333</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5602,7 +5608,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5612,14 +5618,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>335</v>
+        <v>88</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5628,14 +5634,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5645,11 +5651,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>21</v>
@@ -5661,14 +5667,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>99</v>
+        <v>340</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5678,14 +5684,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5694,14 +5700,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5711,14 +5717,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5727,7 +5733,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5744,14 +5750,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5760,14 +5766,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5777,14 +5783,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>234</v>
+        <v>350</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>122</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5793,31 +5799,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>352</v>
+        <v>35</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>156</v>
+        <v>236</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5843,11 +5849,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>21</v>
@@ -5866,7 +5872,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>18</v>
+        <v>356</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5876,14 +5882,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>356</v>
+        <v>52</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>64</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5909,14 +5915,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>215</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5925,14 +5931,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>246</v>
+        <v>18</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5942,11 +5948,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>14</v>
+        <v>358</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5958,14 +5964,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>360</v>
+        <v>248</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5975,14 +5981,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>253</v>
+        <v>14</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>254</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5998,7 +6004,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>18</v>
+        <v>362</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -6008,11 +6014,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>146</v>
+        <v>255</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>21</v>
@@ -6024,14 +6030,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6041,11 +6047,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>253</v>
+        <v>148</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>21</v>
@@ -6064,7 +6070,7 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>18</v>
+        <v>365</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6074,11 +6080,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>365</v>
+        <v>255</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>366</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>21</v>
@@ -6090,7 +6096,7 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
@@ -6107,14 +6113,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
         <v>368</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>369</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6123,7 +6129,7 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
@@ -6140,14 +6146,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>16</v>
+        <v>371</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6156,14 +6162,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6173,14 +6179,14 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>15</v>
+        <v>374</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6189,14 +6195,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6206,11 +6212,11 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>209</v>
+        <v>358</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>375</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>21</v>
@@ -6229,7 +6235,7 @@
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>377</v>
+        <v>18</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6239,14 +6245,14 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c t="s" r="Q141" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -6262,7 +6268,7 @@
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>21</v>
+        <v>379</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6272,14 +6278,14 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>156</v>
+        <v>255</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>157</v>
+        <v>370</v>
       </c>
       <c t="s" r="Q142" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143" ht="24.75" customHeight="1">
@@ -6288,14 +6294,14 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6305,11 +6311,11 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>253</v>
+        <v>158</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>254</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q143" s="12">
         <v>21</v>
@@ -6321,14 +6327,14 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>381</v>
+        <v>18</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6338,14 +6344,14 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>15</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q144" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145" ht="24.75" customHeight="1">
@@ -6361,7 +6367,7 @@
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
@@ -6371,49 +6377,82 @@
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>383</v>
+        <v>14</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q145" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="A146" s="7">
+        <v>140</v>
+      </c>
+      <c r="B146" s="7"/>
+      <c t="s" r="C146" s="8">
         <v>384</v>
       </c>
-      <c t="s" r="Q145" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="146" ht="25.5" customHeight="1">
-      <c r="P146" s="13">
-        <v>12521.715</v>
-      </c>
-      <c r="Q146" s="13"/>
-    </row>
-    <row r="147" ht="16.5" customHeight="1">
-      <c t="s" r="A147" s="14">
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c t="s" r="H146" s="9">
+        <v>365</v>
+      </c>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c t="s" r="L146" s="10">
+        <v>62</v>
+      </c>
+      <c r="M146" s="10"/>
+      <c t="s" r="N146" s="8">
         <v>385</v>
       </c>
-      <c r="B147" s="14"/>
-      <c r="C147" s="14"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
-      <c t="s" r="G147" s="15">
+      <c r="O146" s="8"/>
+      <c t="s" r="P146" s="11">
         <v>386</v>
       </c>
-      <c r="H147" s="15"/>
-      <c r="I147" s="15"/>
-      <c r="J147" s="16"/>
-      <c t="s" r="K147" s="17">
+      <c t="s" r="Q146" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="147" ht="25.5" customHeight="1">
+      <c r="P147" s="13">
+        <v>12626.715</v>
+      </c>
+      <c r="Q147" s="13"/>
+    </row>
+    <row r="148" ht="16.5" customHeight="1">
+      <c t="s" r="A148" s="14">
         <v>387</v>
       </c>
-      <c r="L147" s="17"/>
-      <c r="M147" s="17"/>
-      <c r="N147" s="17"/>
-      <c r="O147" s="17"/>
-      <c r="P147" s="17"/>
-      <c r="Q147" s="17"/>
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
+      <c t="s" r="G148" s="15">
+        <v>388</v>
+      </c>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="16"/>
+      <c t="s" r="K148" s="17">
+        <v>389</v>
+      </c>
+      <c r="L148" s="17"/>
+      <c r="M148" s="17"/>
+      <c r="N148" s="17"/>
+      <c r="O148" s="17"/>
+      <c r="P148" s="17"/>
+      <c r="Q148" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="707">
+  <mergeCells count="712">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7117,10 +7156,15 @@
     <mergeCell ref="H145:K145"/>
     <mergeCell ref="L145:M145"/>
     <mergeCell ref="N145:O145"/>
-    <mergeCell ref="P146:Q146"/>
-    <mergeCell ref="A147:F147"/>
-    <mergeCell ref="G147:I147"/>
-    <mergeCell ref="K147:Q147"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:G146"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="P147:Q147"/>
+    <mergeCell ref="A148:F148"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="K148:Q148"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -419,6 +419,9 @@
     <t>DAVALINDI 10.000 I.U. 30 TABS.</t>
   </si>
   <si>
+    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -1121,34 +1124,31 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>سويت كوكو</t>
+  </si>
+  <si>
+    <t>شامبو الفيف 400 مل</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>35:0</t>
+  </si>
+  <si>
     <t>40.0000</t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>سويت كوكو</t>
-  </si>
-  <si>
-    <t>شامبو الفيف 400 مل</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات فينوس حريمي </t>
-  </si>
-  <si>
-    <t>35:0</t>
   </si>
   <si>
     <t xml:space="preserve">فرش كعب </t>
@@ -3034,7 +3034,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3044,14 +3044,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3060,14 +3060,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3077,14 +3077,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>35</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3100,7 +3100,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3110,11 +3110,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>35</v>
@@ -3126,14 +3126,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3143,11 +3143,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>35</v>
@@ -3159,14 +3159,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3176,11 +3176,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>35</v>
@@ -3192,14 +3192,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3209,11 +3209,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>35</v>
@@ -3225,14 +3225,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3242,14 +3242,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3265,7 +3265,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3275,14 +3275,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3291,14 +3291,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3308,14 +3308,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3324,14 +3324,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3341,11 +3341,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3357,14 +3357,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3374,14 +3374,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3390,31 +3390,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3423,28 +3423,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>35</v>
@@ -3456,14 +3456,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3473,11 +3473,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>35</v>
@@ -3489,14 +3489,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3506,11 +3506,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>35</v>
@@ -3522,31 +3522,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3562,21 +3562,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3595,7 +3595,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3605,14 +3605,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3621,14 +3621,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3638,14 +3638,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3654,14 +3654,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3671,14 +3671,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3687,14 +3687,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3704,14 +3704,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3720,14 +3720,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3737,14 +3737,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3753,14 +3753,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3770,14 +3770,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3786,14 +3786,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3803,14 +3803,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3836,11 +3836,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>35</v>
@@ -3852,14 +3852,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3869,14 +3869,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3885,14 +3885,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3902,14 +3902,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3918,14 +3918,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3935,11 +3935,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3951,14 +3951,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3968,14 +3968,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3984,14 +3984,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -4001,14 +4001,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -4017,14 +4017,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4034,11 +4034,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>52</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -4050,14 +4050,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4067,11 +4067,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -4083,14 +4083,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4100,14 +4100,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>223</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4116,14 +4116,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4133,14 +4133,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>52</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4149,14 +4149,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4166,14 +4166,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4182,14 +4182,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4199,14 +4199,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4215,14 +4215,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4232,11 +4232,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>98</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>35</v>
@@ -4248,14 +4248,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4265,14 +4265,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4281,14 +4281,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4298,11 +4298,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4314,14 +4314,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4331,14 +4331,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>117</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4354,7 +4354,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>143</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4364,14 +4364,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>117</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4380,14 +4380,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4397,14 +4397,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>248</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4430,14 +4430,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4453,7 +4453,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>251</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4463,14 +4463,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4479,14 +4479,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4496,14 +4496,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>42</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4512,14 +4512,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4529,11 +4529,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4545,14 +4545,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4562,14 +4562,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4578,14 +4578,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4595,14 +4595,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4611,14 +4611,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>249</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4628,11 +4628,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>88</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4657,15 +4657,15 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>88</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4677,28 +4677,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>112</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4710,14 +4710,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4727,11 +4727,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>274</v>
+        <v>112</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4743,28 +4743,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4776,14 +4776,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4793,14 +4793,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4809,31 +4809,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>110</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4842,28 +4842,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>110</v>
@@ -4875,31 +4875,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4908,7 +4908,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4925,11 +4925,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>127</v>
+        <v>290</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4958,11 +4958,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>294</v>
+        <v>127</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4974,28 +4974,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -5007,31 +5007,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>49</v>
+        <v>298</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5040,14 +5040,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>248</v>
+        <v>165</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5057,14 +5057,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>302</v>
+        <v>49</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5073,14 +5073,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>249</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5090,14 +5090,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>182</v>
+        <v>303</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5106,14 +5106,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5123,14 +5123,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>185</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5146,7 +5146,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5156,14 +5156,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5179,7 +5179,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5189,11 +5189,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -5205,14 +5205,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5222,14 +5222,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5238,31 +5238,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5271,28 +5271,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>148</v>
+        <v>316</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5311,7 +5311,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5321,11 +5321,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>64</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5344,7 +5344,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5354,11 +5354,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>202</v>
+        <v>63</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>320</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5370,14 +5370,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5387,14 +5387,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>240</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5410,7 +5410,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5420,11 +5420,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>323</v>
+        <v>23</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>35</v>
@@ -5436,14 +5436,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5453,14 +5453,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>83</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5476,7 +5476,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5486,11 +5486,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>21</v>
@@ -5509,7 +5509,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>328</v>
+        <v>29</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5519,11 +5519,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>264</v>
+        <v>159</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>265</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5535,14 +5535,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>21</v>
+        <v>329</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5552,14 +5552,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>330</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5568,14 +5568,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5585,14 +5585,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>332</v>
+        <v>176</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5601,14 +5601,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>221</v>
+        <v>16</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5618,14 +5618,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>88</v>
+        <v>333</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5634,14 +5634,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>18</v>
+        <v>222</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5651,14 +5651,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>337</v>
+        <v>88</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5667,14 +5667,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>340</v>
+        <v>18</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5684,11 +5684,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>21</v>
@@ -5700,14 +5700,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>101</v>
+        <v>341</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5717,14 +5717,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5750,14 +5750,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5783,14 +5783,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5799,14 +5799,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5816,14 +5816,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>236</v>
+        <v>351</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>124</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5839,24 +5839,24 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>354</v>
+        <v>35</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>158</v>
+        <v>237</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5865,14 +5865,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5882,11 +5882,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>21</v>
@@ -5898,14 +5898,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>18</v>
+        <v>357</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5915,14 +5915,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>358</v>
+        <v>52</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>64</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -5948,14 +5948,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>217</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5971,7 +5971,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5981,11 +5981,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>14</v>
+        <v>359</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>15</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -6004,7 +6004,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>362</v>
+        <v>249</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -6014,14 +6014,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>255</v>
+        <v>14</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>256</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6030,14 +6030,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>18</v>
+        <v>363</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6047,11 +6047,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>148</v>
+        <v>256</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>21</v>
@@ -6070,7 +6070,7 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>365</v>
+        <v>18</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6080,11 +6080,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>255</v>
+        <v>149</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>21</v>
@@ -6096,14 +6096,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>18</v>
+        <v>366</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6113,11 +6113,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>367</v>
+        <v>256</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>368</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>21</v>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
@@ -6146,14 +6146,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>371</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
@@ -6179,14 +6179,14 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>373</v>
+        <v>342</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>374</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6195,14 +6195,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6212,14 +6212,14 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>15</v>
+        <v>373</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6228,14 +6228,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6245,11 +6245,11 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>211</v>
+        <v>359</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>377</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>21</v>
@@ -6261,14 +6261,14 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>379</v>
+        <v>18</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6278,14 +6278,14 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c t="s" r="Q142" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143" ht="24.75" customHeight="1">
@@ -6294,14 +6294,14 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>21</v>
+        <v>378</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6311,14 +6311,14 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>158</v>
+        <v>256</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>159</v>
+        <v>379</v>
       </c>
       <c t="s" r="Q143" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144" ht="25.5" customHeight="1">
@@ -6327,14 +6327,14 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6344,11 +6344,11 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>255</v>
+        <v>159</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>256</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q144" s="12">
         <v>21</v>
@@ -6360,14 +6360,14 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>383</v>
+        <v>18</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
@@ -6377,14 +6377,14 @@
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>15</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q145" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="146" ht="25.5" customHeight="1">
@@ -6393,14 +6393,14 @@
       </c>
       <c r="B146" s="7"/>
       <c t="s" r="C146" s="8">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c t="s" r="H146" s="9">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
@@ -6410,49 +6410,82 @@
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
-        <v>385</v>
+        <v>14</v>
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q146" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" ht="25.5" customHeight="1">
+      <c r="A147" s="7">
+        <v>141</v>
+      </c>
+      <c r="B147" s="7"/>
+      <c t="s" r="C147" s="8">
+        <v>384</v>
+      </c>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c t="s" r="H147" s="9">
+        <v>366</v>
+      </c>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c t="s" r="L147" s="10">
+        <v>62</v>
+      </c>
+      <c r="M147" s="10"/>
+      <c t="s" r="N147" s="8">
+        <v>385</v>
+      </c>
+      <c r="O147" s="8"/>
+      <c t="s" r="P147" s="11">
         <v>386</v>
       </c>
-      <c t="s" r="Q146" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="147" ht="25.5" customHeight="1">
-      <c r="P147" s="13">
-        <v>12626.715</v>
-      </c>
-      <c r="Q147" s="13"/>
-    </row>
-    <row r="148" ht="16.5" customHeight="1">
-      <c t="s" r="A148" s="14">
+      <c t="s" r="Q147" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="148" ht="24.75" customHeight="1">
+      <c r="P148" s="13">
+        <v>12688.715</v>
+      </c>
+      <c r="Q148" s="13"/>
+    </row>
+    <row r="149" ht="16.5" customHeight="1">
+      <c t="s" r="A149" s="14">
         <v>387</v>
       </c>
-      <c r="B148" s="14"/>
-      <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
-      <c t="s" r="G148" s="15">
+      <c r="B149" s="14"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14"/>
+      <c t="s" r="G149" s="15">
         <v>388</v>
       </c>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
-      <c r="J148" s="16"/>
-      <c t="s" r="K148" s="17">
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="16"/>
+      <c t="s" r="K149" s="17">
         <v>389</v>
       </c>
-      <c r="L148" s="17"/>
-      <c r="M148" s="17"/>
-      <c r="N148" s="17"/>
-      <c r="O148" s="17"/>
-      <c r="P148" s="17"/>
-      <c r="Q148" s="17"/>
+      <c r="L149" s="17"/>
+      <c r="M149" s="17"/>
+      <c r="N149" s="17"/>
+      <c r="O149" s="17"/>
+      <c r="P149" s="17"/>
+      <c r="Q149" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="712">
+  <mergeCells count="717">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7161,10 +7194,15 @@
     <mergeCell ref="H146:K146"/>
     <mergeCell ref="L146:M146"/>
     <mergeCell ref="N146:O146"/>
-    <mergeCell ref="P147:Q147"/>
-    <mergeCell ref="A148:F148"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="K148:Q148"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:G147"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="P148:Q148"/>
+    <mergeCell ref="A149:F149"/>
+    <mergeCell ref="G149:I149"/>
+    <mergeCell ref="K149:Q149"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -1172,7 +1172,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 11:09 PM</t>
+    <t>Wednesday, 23 July, 2025 11:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -245,6 +245,18 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>BETADINE ANTISEPTIC SOLN. 10% 120 ML</t>
   </si>
   <si>
@@ -377,9 +389,6 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -1106,6 +1115,15 @@
     <t>جولي ايفا كريم تشقير</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
@@ -1127,9 +1145,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>6.0000</t>
   </si>
   <si>
@@ -1172,7 +1187,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 11:25 PM</t>
+    <t>Wednesday, 23 July, 2025 11:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2407,7 +2422,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2417,11 +2432,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -2433,14 +2448,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2450,11 +2465,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2466,14 +2481,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2483,11 +2498,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2499,14 +2514,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2516,14 +2531,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2532,7 +2547,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2549,14 +2564,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2565,14 +2580,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2582,14 +2597,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2598,14 +2613,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2622,7 +2637,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2655,7 +2670,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2681,14 +2696,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2697,14 +2712,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2714,14 +2729,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>110</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2730,14 +2745,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2754,7 +2769,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>35</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2763,14 +2778,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2780,11 +2795,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>35</v>
@@ -2796,14 +2811,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2813,11 +2828,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>35</v>
@@ -2829,14 +2844,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2846,14 +2861,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2862,14 +2877,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2879,7 +2894,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2902,7 +2917,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2912,14 +2927,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2928,14 +2943,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2952,7 +2967,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2968,7 +2983,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -3001,7 +3016,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -3011,14 +3026,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3027,14 +3042,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3044,11 +3059,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -3060,14 +3075,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3077,14 +3092,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3093,14 +3108,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3110,14 +3125,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>35</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3126,14 +3141,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3143,11 +3158,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>35</v>
@@ -3159,14 +3174,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3180,7 +3195,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>35</v>
@@ -3192,14 +3207,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3209,11 +3224,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>35</v>
@@ -3232,7 +3247,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3242,7 +3257,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -3265,7 +3280,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3275,14 +3290,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3291,14 +3306,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3308,14 +3323,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3331,7 +3346,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3348,7 +3363,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3364,7 +3379,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3397,7 +3412,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3407,14 +3422,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3423,31 +3438,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3463,13 +3478,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3496,7 +3511,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3529,7 +3544,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3562,24 +3577,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3588,28 +3603,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3621,14 +3636,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3638,14 +3653,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3654,14 +3669,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3671,14 +3686,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3694,7 +3709,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3704,14 +3719,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3720,14 +3735,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3737,14 +3752,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3760,7 +3775,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3777,7 +3792,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3793,7 +3808,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3810,7 +3825,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3826,7 +3841,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3843,7 +3858,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3892,7 +3907,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3909,7 +3924,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3925,7 +3940,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3942,7 +3957,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3958,7 +3973,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3991,7 +4006,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -4008,7 +4023,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -4024,7 +4039,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4041,7 +4056,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4057,7 +4072,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4067,11 +4082,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>52</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -4083,14 +4098,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4100,11 +4115,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -4116,14 +4131,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4133,14 +4148,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>224</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4149,14 +4164,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4166,14 +4181,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q78" s="12">
         <v>227</v>
-      </c>
-      <c t="s" r="Q78" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4189,7 +4204,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4199,14 +4214,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4222,7 +4237,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4232,14 +4247,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4248,14 +4263,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4265,7 +4280,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>102</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4288,7 +4303,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4305,7 +4320,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4321,7 +4336,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4354,7 +4369,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4364,14 +4379,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>86</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4380,14 +4395,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>146</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4397,14 +4412,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>121</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4420,7 +4435,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4430,14 +4445,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>249</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4446,7 +4461,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4463,14 +4478,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4479,14 +4494,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4496,14 +4511,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4529,14 +4544,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>42</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4545,14 +4560,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4585,7 +4600,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4595,14 +4610,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4618,7 +4633,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4628,14 +4643,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4651,7 +4666,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4661,11 +4676,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>88</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4677,7 +4692,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4690,11 +4705,11 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>92</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4717,21 +4732,21 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>112</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4743,14 +4758,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4760,7 +4775,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>116</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4783,13 +4798,13 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4816,7 +4831,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4833,7 +4848,7 @@
         <v>282</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4849,13 +4864,13 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4866,7 +4881,7 @@
         <v>285</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>110</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4882,13 +4897,13 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4899,7 +4914,7 @@
         <v>288</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4915,13 +4930,13 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
@@ -4932,7 +4947,7 @@
         <v>291</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4958,11 +4973,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>127</v>
+        <v>293</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4974,7 +4989,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4991,7 +5006,7 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>295</v>
+        <v>130</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
@@ -5014,13 +5029,13 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -5047,24 +5062,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>49</v>
+        <v>301</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5073,14 +5088,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>249</v>
+        <v>168</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5090,14 +5105,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>303</v>
+        <v>49</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>304</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5113,7 +5128,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5123,14 +5138,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>183</v>
+        <v>306</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5139,14 +5154,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5156,14 +5171,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>186</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5172,14 +5187,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5189,14 +5204,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>209</v>
+        <v>23</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5205,14 +5220,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5222,11 +5237,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>310</v>
+        <v>212</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>311</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
@@ -5245,7 +5260,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5262,7 +5277,7 @@
         <v>314</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5278,13 +5293,13 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
@@ -5295,7 +5310,7 @@
         <v>317</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5311,21 +5326,21 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>149</v>
+        <v>319</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5337,14 +5352,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5354,11 +5369,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>64</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5370,14 +5385,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5387,11 +5402,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>321</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5403,14 +5418,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5420,14 +5435,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>241</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5436,14 +5451,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5453,11 +5468,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>324</v>
+        <v>23</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>325</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>35</v>
@@ -5476,7 +5491,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5486,14 +5501,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>82</v>
+        <v>327</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>83</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5502,14 +5517,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5519,11 +5534,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5535,14 +5550,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>329</v>
+        <v>29</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5552,11 +5567,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>265</v>
+        <v>162</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>266</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>21</v>
@@ -5568,14 +5583,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>21</v>
+        <v>332</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5585,14 +5600,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>176</v>
+        <v>268</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>331</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5601,14 +5616,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5618,14 +5633,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>333</v>
+        <v>179</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
         <v>334</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5641,7 +5656,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>222</v>
+        <v>16</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5651,14 +5666,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>88</v>
+        <v>336</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5667,14 +5682,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5684,14 +5699,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>338</v>
+        <v>92</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
         <v>339</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5707,7 +5722,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>341</v>
+        <v>18</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5717,11 +5732,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>21</v>
@@ -5733,14 +5748,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>101</v>
+        <v>344</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5757,7 +5772,7 @@
         <v>346</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5773,7 +5788,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5790,7 +5805,7 @@
         <v>349</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>35</v>
+        <v>105</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5823,7 +5838,7 @@
         <v>352</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5839,7 +5854,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5849,14 +5864,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>237</v>
+        <v>354</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>124</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5865,31 +5880,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>355</v>
+        <v>35</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5898,14 +5913,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5915,11 +5930,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>21</v>
@@ -5931,14 +5946,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>18</v>
+        <v>360</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5948,14 +5963,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>359</v>
+        <v>52</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>64</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5964,7 +5979,7 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -5981,14 +5996,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>218</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5997,14 +6012,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -6014,11 +6029,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>14</v>
+        <v>362</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -6030,14 +6045,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>363</v>
+        <v>252</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6047,14 +6062,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>256</v>
+        <v>14</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>257</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6063,14 +6078,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>18</v>
+        <v>366</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6080,11 +6095,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>149</v>
+        <v>259</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>21</v>
@@ -6096,14 +6111,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>366</v>
+        <v>18</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6113,11 +6128,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>256</v>
+        <v>152</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>21</v>
@@ -6129,7 +6144,7 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
@@ -6146,11 +6161,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>21</v>
@@ -6162,14 +6177,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>18</v>
+        <v>372</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6179,14 +6194,14 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>342</v>
+        <v>259</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>189</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>105</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6195,7 +6210,7 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
@@ -6212,14 +6227,14 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6228,14 +6243,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6245,14 +6260,14 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q141" s="12">
-        <v>21</v>
+        <v>109</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -6261,7 +6276,7 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
@@ -6278,14 +6293,14 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>212</v>
+        <v>369</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c t="s" r="Q142" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143" ht="24.75" customHeight="1">
@@ -6294,14 +6309,14 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6311,14 +6326,14 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>256</v>
+        <v>362</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>379</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q143" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="144" ht="25.5" customHeight="1">
@@ -6334,7 +6349,7 @@
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6344,11 +6359,11 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>160</v>
+        <v>381</v>
       </c>
       <c t="s" r="Q144" s="12">
         <v>21</v>
@@ -6360,14 +6375,14 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>18</v>
+        <v>383</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
@@ -6377,14 +6392,14 @@
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>257</v>
+        <v>384</v>
       </c>
       <c t="s" r="Q145" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146" ht="25.5" customHeight="1">
@@ -6393,14 +6408,14 @@
       </c>
       <c r="B146" s="7"/>
       <c t="s" r="C146" s="8">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c t="s" r="H146" s="9">
-        <v>383</v>
+        <v>21</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
@@ -6410,14 +6425,14 @@
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q146" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147" ht="25.5" customHeight="1">
@@ -6426,14 +6441,14 @@
       </c>
       <c r="B147" s="7"/>
       <c t="s" r="C147" s="8">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
       <c t="s" r="H147" s="9">
-        <v>366</v>
+        <v>18</v>
       </c>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
@@ -6443,49 +6458,115 @@
       </c>
       <c r="M147" s="10"/>
       <c t="s" r="N147" s="8">
-        <v>385</v>
+        <v>259</v>
       </c>
       <c r="O147" s="8"/>
       <c t="s" r="P147" s="11">
-        <v>386</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q147" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="148" ht="24.75" customHeight="1">
-      <c r="P148" s="13">
-        <v>12688.715</v>
-      </c>
-      <c r="Q148" s="13"/>
-    </row>
-    <row r="149" ht="16.5" customHeight="1">
-      <c t="s" r="A149" s="14">
+      <c r="A148" s="7">
+        <v>142</v>
+      </c>
+      <c r="B148" s="7"/>
+      <c t="s" r="C148" s="8">
         <v>387</v>
       </c>
-      <c r="B149" s="14"/>
-      <c r="C149" s="14"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="14"/>
-      <c r="F149" s="14"/>
-      <c t="s" r="G149" s="15">
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c t="s" r="H148" s="9">
         <v>388</v>
       </c>
-      <c r="H149" s="15"/>
-      <c r="I149" s="15"/>
-      <c r="J149" s="16"/>
-      <c t="s" r="K149" s="17">
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c t="s" r="L148" s="10">
+        <v>62</v>
+      </c>
+      <c r="M148" s="10"/>
+      <c t="s" r="N148" s="8">
+        <v>14</v>
+      </c>
+      <c r="O148" s="8"/>
+      <c t="s" r="P148" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q148" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" ht="25.5" customHeight="1">
+      <c r="A149" s="7">
+        <v>143</v>
+      </c>
+      <c r="B149" s="7"/>
+      <c t="s" r="C149" s="8">
         <v>389</v>
       </c>
-      <c r="L149" s="17"/>
-      <c r="M149" s="17"/>
-      <c r="N149" s="17"/>
-      <c r="O149" s="17"/>
-      <c r="P149" s="17"/>
-      <c r="Q149" s="17"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c t="s" r="H149" s="9">
+        <v>372</v>
+      </c>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c t="s" r="L149" s="10">
+        <v>62</v>
+      </c>
+      <c r="M149" s="10"/>
+      <c t="s" r="N149" s="8">
+        <v>390</v>
+      </c>
+      <c r="O149" s="8"/>
+      <c t="s" r="P149" s="11">
+        <v>391</v>
+      </c>
+      <c t="s" r="Q149" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="150" ht="24.75" customHeight="1">
+      <c r="P150" s="13">
+        <v>12709.715</v>
+      </c>
+      <c r="Q150" s="13"/>
+    </row>
+    <row r="151" ht="16.5" customHeight="1">
+      <c t="s" r="A151" s="14">
+        <v>392</v>
+      </c>
+      <c r="B151" s="14"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c t="s" r="G151" s="15">
+        <v>393</v>
+      </c>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="16"/>
+      <c t="s" r="K151" s="17">
+        <v>394</v>
+      </c>
+      <c r="L151" s="17"/>
+      <c r="M151" s="17"/>
+      <c r="N151" s="17"/>
+      <c r="O151" s="17"/>
+      <c r="P151" s="17"/>
+      <c r="Q151" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="717">
+  <mergeCells count="727">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7199,10 +7280,20 @@
     <mergeCell ref="H147:K147"/>
     <mergeCell ref="L147:M147"/>
     <mergeCell ref="N147:O147"/>
-    <mergeCell ref="P148:Q148"/>
-    <mergeCell ref="A149:F149"/>
-    <mergeCell ref="G149:I149"/>
-    <mergeCell ref="K149:Q149"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="C148:G148"/>
+    <mergeCell ref="H148:K148"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="H149:K149"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="P150:Q150"/>
+    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="G151:I151"/>
+    <mergeCell ref="K151:Q151"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -1187,7 +1187,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 11:27 PM</t>
+    <t>Wednesday, 23 July, 2025 11:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-23_00-00.xlsx
+++ b/DaySale_2025-07-23_00-00.xlsx
@@ -248,147 +248,150 @@
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 120 ML</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>B-FRESH 0.05% (500ML) MOUTHWASH</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>BIPERIDEN 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
+    <t>CALMEPAM 3MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>CEFTRIAXONE-SANDOZ 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>285.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>-22.7700</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>BETADINE ANTISEPTIC SOLN. 10% 120 ML</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>BETAFOS 1 AMP. 2ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>B-FRESH 0.05% (500ML) MOUTHWASH</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>BIPERIDEN 2MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>CALAMYL LOTION 100 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>98.0000</t>
-  </si>
-  <si>
-    <t>CALMEPAM 3MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>CATAFAST 50 MG 9 SACHET</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>7.9200</t>
-  </si>
-  <si>
-    <t>CEFTRIAXONE-SANDOZ 1 GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>285.0000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>22:0</t>
-  </si>
-  <si>
-    <t>COLONA 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>-22.7700</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>69.3000</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -680,9 +683,6 @@
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -785,9 +785,6 @@
     <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -1187,7 +1184,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 23 July, 2025 11:34 PM</t>
+    <t>Wednesday, 23 July, 2025 11:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2439,7 +2436,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2917,7 +2914,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2927,11 +2924,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2943,14 +2940,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2960,11 +2957,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2976,7 +2973,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2993,11 +2990,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>35</v>
@@ -3009,7 +3006,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -3026,11 +3023,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>35</v>
@@ -3042,7 +3039,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -3075,7 +3072,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -3108,14 +3105,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3125,11 +3122,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>111</v>
@@ -3141,7 +3138,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3174,14 +3171,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3191,11 +3188,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>35</v>
@@ -3207,7 +3204,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3224,7 +3221,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -3240,7 +3237,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3257,11 +3254,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>35</v>
@@ -3273,14 +3270,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3294,7 +3291,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>35</v>
@@ -3306,7 +3303,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3339,7 +3336,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3356,11 +3353,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>35</v>
@@ -3372,7 +3369,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3389,11 +3386,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3405,7 +3402,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3422,11 +3419,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3438,14 +3435,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3471,7 +3468,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3488,11 +3485,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>35</v>
@@ -3504,7 +3501,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3521,11 +3518,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>35</v>
@@ -3537,7 +3534,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3554,11 +3551,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>35</v>
@@ -3570,7 +3567,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3587,11 +3584,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>35</v>
@@ -3603,7 +3600,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3636,7 +3633,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3669,7 +3666,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3686,7 +3683,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3702,7 +3699,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3719,11 +3716,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>40</v>
@@ -3735,7 +3732,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3756,7 +3753,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3768,7 +3765,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3785,11 +3782,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3801,7 +3798,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3818,11 +3815,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>35</v>
@@ -3834,7 +3831,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3851,11 +3848,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3867,7 +3864,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3884,11 +3881,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>35</v>
@@ -3900,7 +3897,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3917,11 +3914,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>35</v>
@@ -3933,7 +3930,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3950,11 +3947,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3966,7 +3963,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3983,11 +3980,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3999,7 +3996,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -4016,11 +4013,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -4032,7 +4029,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -4049,11 +4046,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>35</v>
@@ -4065,7 +4062,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -4082,11 +4079,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -4098,7 +4095,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4119,7 +4116,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -4131,7 +4128,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4148,11 +4145,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -4402,7 +4399,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4449,7 +4446,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4567,7 +4564,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4577,11 +4574,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4593,7 +4590,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4610,11 +4607,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4626,14 +4623,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4643,11 +4640,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>101</v>
@@ -4659,7 +4656,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4676,11 +4673,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4692,7 +4689,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4713,7 +4710,7 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4725,7 +4722,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4742,11 +4739,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4758,7 +4755,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4779,7 +4776,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4791,7 +4788,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4808,11 +4805,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4824,7 +4821,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4841,11 +4838,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4857,7 +4854,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4874,11 +4871,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>35</v>
@@ -4890,7 +4887,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4907,11 +4904,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>114</v>
@@ -4923,7 +4920,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4940,11 +4937,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>114</v>
@@ -4956,7 +4953,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4973,11 +4970,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4989,7 +4986,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -5006,11 +5003,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -5022,7 +5019,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -5039,11 +5036,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -5055,7 +5052,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -5072,11 +5069,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -5088,14 +5085,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5109,7 +5106,7 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>40</v>
@@ -5121,7 +5118,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5138,11 +5135,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5154,7 +5151,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5171,11 +5168,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -5187,7 +5184,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5208,7 +5205,7 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>101</v>
@@ -5220,7 +5217,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5237,11 +5234,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
@@ -5253,7 +5250,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5270,11 +5267,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5286,7 +5283,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5303,11 +5300,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>35</v>
@@ -5319,7 +5316,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5336,11 +5333,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5352,7 +5349,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5369,11 +5366,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5385,7 +5382,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5418,7 +5415,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5435,11 +5432,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>21</v>
@@ -5451,7 +5448,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5484,7 +5481,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5501,11 +5498,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>35</v>
@@ -5517,14 +5514,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5550,7 +5547,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5567,11 +5564,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>21</v>
@@ -5583,14 +5580,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5600,11 +5597,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>21</v>
@@ -5616,7 +5613,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5633,11 +5630,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>35</v>
@@ -5649,7 +5646,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5666,11 +5663,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>21</v>
@@ -5682,7 +5679,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5703,7 +5700,7 @@
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>37</v>
@@ -5715,7 +5712,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5732,11 +5729,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>21</v>
@@ -5748,14 +5745,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5765,11 +5762,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>21</v>
@@ -5781,7 +5778,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5798,11 +5795,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>105</v>
@@ -5814,7 +5811,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5831,11 +5828,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>35</v>
@@ -5847,7 +5844,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5864,11 +5861,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>21</v>
@@ -5880,7 +5877,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5901,7 +5898,7 @@
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>35</v>
@@ -5913,14 +5910,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5930,11 +5927,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>21</v>
@@ -5946,14 +5943,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="